--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.005396599999983209</v>
+        <v>0.005477700000000141</v>
       </c>
       <c r="U2">
         <v>29</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.004827299999988099</v>
+        <v>0.005170800000001918</v>
       </c>
       <c r="U3">
         <v>27</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.004197200000021439</v>
+        <v>0.00449109999999564</v>
       </c>
       <c r="U4">
         <v>23</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.007081499999969765</v>
+        <v>0.005952000000000623</v>
       </c>
       <c r="U5">
         <v>29</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.00389770000003864</v>
+        <v>0.003947099999997761</v>
       </c>
       <c r="U6">
         <v>20</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.004278499999998076</v>
+        <v>0.00476499999999902</v>
       </c>
       <c r="U7">
         <v>24</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005011599999988903</v>
+        <v>0.004077300000005835</v>
       </c>
       <c r="U8">
         <v>20</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.003643000000010943</v>
+        <v>0.003838600000001691</v>
       </c>
       <c r="U9">
         <v>20</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.005429100000014841</v>
+        <v>0.005922999999995682</v>
       </c>
       <c r="U10">
         <v>29</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.002789600000028258</v>
+        <v>0.002776300000000731</v>
       </c>
       <c r="U11">
         <v>14</v>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.004715900000007878</v>
+        <v>0.004874800000003177</v>
       </c>
       <c r="U12">
         <v>26</v>
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.004909900000029666</v>
+        <v>0.005351699999998516</v>
       </c>
       <c r="U13">
         <v>23</v>
@@ -1389,7 +1389,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.004291099999989001</v>
+        <v>0.004500999999997646</v>
       </c>
       <c r="U14">
         <v>24</v>
@@ -1457,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.005271499999992102</v>
+        <v>0.005452900000001648</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1525,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.006102800000007846</v>
+        <v>0.006252600000003383</v>
       </c>
       <c r="U16">
         <v>29</v>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00498410000000149</v>
+        <v>0.005216400000001897</v>
       </c>
       <c r="U17">
         <v>28</v>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.004515500000024986</v>
+        <v>0.004633499999997071</v>
       </c>
       <c r="U18">
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.004875200000014956</v>
+        <v>0.005148399999995945</v>
       </c>
       <c r="U19">
         <v>27</v>
@@ -1797,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.005292699999984052</v>
+        <v>0.006282899999995095</v>
       </c>
       <c r="U20">
         <v>29</v>
@@ -1865,7 +1865,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.004809000000022934</v>
+        <v>0.004054100000004723</v>
       </c>
       <c r="U21">
         <v>21</v>
@@ -1933,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0054290000000492</v>
+        <v>0.005793799999999294</v>
       </c>
       <c r="U22">
         <v>30</v>
@@ -2001,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.003730200000006789</v>
+        <v>0.00437300000000107</v>
       </c>
       <c r="U23">
         <v>20</v>
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.005870299999969575</v>
+        <v>0.007640500000000827</v>
       </c>
       <c r="U24">
         <v>24</v>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.005148599999984071</v>
+        <v>0.006852500000000816</v>
       </c>
       <c r="U25">
         <v>29</v>
@@ -2205,7 +2205,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.003600500000004558</v>
+        <v>0.004499199999997927</v>
       </c>
       <c r="U26">
         <v>19</v>
@@ -2273,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.004183600000033039</v>
+        <v>0.003635500000001457</v>
       </c>
       <c r="U27">
         <v>18</v>
@@ -2341,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.004846699999973225</v>
+        <v>0.005612100000000453</v>
       </c>
       <c r="U28">
         <v>27</v>
@@ -2409,7 +2409,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.005055500000025859</v>
+        <v>0.00613159999999624</v>
       </c>
       <c r="U29">
         <v>28</v>
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.006566600000041944</v>
+        <v>0.005867799999997203</v>
       </c>
       <c r="U30">
         <v>31</v>
@@ -2545,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.003924100000006092</v>
+        <v>0.00408170000000041</v>
       </c>
       <c r="U31">
         <v>20</v>
@@ -2613,7 +2613,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.005709999999965021</v>
+        <v>0.006650100000001657</v>
       </c>
       <c r="U32">
         <v>29</v>
@@ -2681,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.006522700000004988</v>
+        <v>0.005227099999999041</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -2749,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.003491100000019287</v>
+        <v>0.003630900000004544</v>
       </c>
       <c r="U34">
         <v>17</v>
@@ -2817,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.004436400000031426</v>
+        <v>0.006044600000002731</v>
       </c>
       <c r="U35">
         <v>24</v>
@@ -2885,7 +2885,7 @@
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.003294999999980064</v>
+        <v>0.003380599999999845</v>
       </c>
       <c r="U36">
         <v>17</v>
@@ -2953,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.00530900000001111</v>
+        <v>0.005188799999999105</v>
       </c>
       <c r="U37">
         <v>27</v>
@@ -3021,7 +3021,7 @@
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.005850800000018808</v>
+        <v>0.006111100000005365</v>
       </c>
       <c r="U38">
         <v>31</v>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.005542800000000625</v>
+        <v>0.004715199999999697</v>
       </c>
       <c r="U39">
         <v>20</v>
@@ -3157,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.005131100000028255</v>
+        <v>0.004833699999998942</v>
       </c>
       <c r="U40">
         <v>26</v>
@@ -3225,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.005344799999988936</v>
+        <v>0.005342699999999923</v>
       </c>
       <c r="U41">
         <v>29</v>
@@ -3293,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.004401499999971747</v>
+        <v>0.005375700000001871</v>
       </c>
       <c r="U42">
         <v>23</v>
@@ -3361,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.005921900000032565</v>
+        <v>0.004380699999998683</v>
       </c>
       <c r="U43">
         <v>23</v>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.005016200000000026</v>
+        <v>0.005441699999998661</v>
       </c>
       <c r="U44">
         <v>27</v>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.004131099999995058</v>
+        <v>0.004620299999999133</v>
       </c>
       <c r="U45">
         <v>23</v>
@@ -3565,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.005677800000000843</v>
+        <v>0.005600100000002328</v>
       </c>
       <c r="U46">
         <v>27</v>
@@ -3633,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.004600200000027144</v>
+        <v>0.00463799999999992</v>
       </c>
       <c r="U47">
         <v>24</v>
@@ -3701,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.005849600000033206</v>
+        <v>0.005787999999995463</v>
       </c>
       <c r="U48">
         <v>31</v>
@@ -3769,7 +3769,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.00472500000000764</v>
+        <v>0.006046599999997682</v>
       </c>
       <c r="U49">
         <v>24</v>
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.002620200000023942</v>
+        <v>0.002509200000005762</v>
       </c>
       <c r="U50">
         <v>12</v>
@@ -3905,7 +3905,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.005222699999990255</v>
+        <v>0.004516199999997639</v>
       </c>
       <c r="U51">
         <v>24</v>
@@ -3973,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.004756400000019312</v>
+        <v>0.005951100000004317</v>
       </c>
       <c r="U52">
         <v>27</v>
@@ -4041,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.00479539999997769</v>
+        <v>0.005116200000003346</v>
       </c>
       <c r="U53">
         <v>27</v>
@@ -4109,7 +4109,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.005148900000051526</v>
+        <v>0.005066300000002855</v>
       </c>
       <c r="U54">
         <v>26</v>
@@ -4177,7 +4177,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.003152599999964423</v>
+        <v>0.003718700000000297</v>
       </c>
       <c r="U55">
         <v>16</v>
@@ -4245,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.005769299999997202</v>
+        <v>0.004986999999999853</v>
       </c>
       <c r="U56">
         <v>27</v>
@@ -4313,7 +4313,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.00378840000001901</v>
+        <v>0.004040000000003374</v>
       </c>
       <c r="U57">
         <v>21</v>
@@ -4381,7 +4381,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.00453570000001946</v>
+        <v>0.004475200000001678</v>
       </c>
       <c r="U58">
         <v>23</v>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.003617599999984122</v>
+        <v>0.003853400000004115</v>
       </c>
       <c r="U59">
         <v>20</v>
@@ -4517,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.004623699999967812</v>
+        <v>0.005398599999999476</v>
       </c>
       <c r="U60">
         <v>26</v>
@@ -4585,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.005418499999962023</v>
+        <v>0.005259500000001083</v>
       </c>
       <c r="U61">
         <v>28</v>
@@ -4653,7 +4653,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.004708400000026813</v>
+        <v>0.004271800000005044</v>
       </c>
       <c r="U62">
         <v>23</v>
@@ -4721,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.005044399999974303</v>
+        <v>0.005709899999999379</v>
       </c>
       <c r="U63">
         <v>28</v>
@@ -4789,7 +4789,7 @@
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.003884599999992133</v>
+        <v>0.003215799999999547</v>
       </c>
       <c r="U64">
         <v>17</v>
@@ -4857,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.005041600000026847</v>
+        <v>0.005240399999998147</v>
       </c>
       <c r="U65">
         <v>28</v>
@@ -4925,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.005336300000010397</v>
+        <v>0.005911300000001063</v>
       </c>
       <c r="U66">
         <v>27</v>
@@ -4993,7 +4993,7 @@
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.004161799999963023</v>
+        <v>0.004452699999994536</v>
       </c>
       <c r="U67">
         <v>23</v>
@@ -5061,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.004141500000002907</v>
+        <v>0.004216800000001797</v>
       </c>
       <c r="U68">
         <v>23</v>
@@ -5129,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.006246599999997215</v>
+        <v>0.005862899999996785</v>
       </c>
       <c r="U69">
         <v>29</v>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.004259699999977329</v>
+        <v>0.004452000000000567</v>
       </c>
       <c r="U70">
         <v>23</v>
@@ -5265,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.004884899999979098</v>
+        <v>0.005127799999996796</v>
       </c>
       <c r="U71">
         <v>27</v>
@@ -5333,7 +5333,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.005779099999983828</v>
+        <v>0.005690600000001211</v>
       </c>
       <c r="U72">
         <v>27</v>
@@ -5401,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.004124099999955888</v>
+        <v>0.004737200000000996</v>
       </c>
       <c r="U73">
         <v>23</v>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.004416699999978846</v>
+        <v>0.003950500000001966</v>
       </c>
       <c r="U74">
         <v>21</v>
@@ -5537,7 +5537,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.00532319999996389</v>
+        <v>0.005613400000001434</v>
       </c>
       <c r="U75">
         <v>29</v>
@@ -5605,7 +5605,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.004363699999998971</v>
+        <v>0.005179200000000606</v>
       </c>
       <c r="U76">
         <v>24</v>
@@ -5673,7 +5673,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.00569860000001654</v>
+        <v>0.005057800000002999</v>
       </c>
       <c r="U77">
         <v>27</v>
@@ -5741,7 +5741,7 @@
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.004899399999999332</v>
+        <v>0.005293300000005274</v>
       </c>
       <c r="U78">
         <v>27</v>
@@ -5809,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.003720599999951446</v>
+        <v>0.004125800000004176</v>
       </c>
       <c r="U79">
         <v>18</v>
@@ -5877,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.003122499999960837</v>
+        <v>0.003347699999999065</v>
       </c>
       <c r="U80">
         <v>17</v>
@@ -5945,7 +5945,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.005112100000019382</v>
+        <v>0.00547470000000061</v>
       </c>
       <c r="U81">
         <v>28</v>
@@ -6013,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.006078500000000986</v>
+        <v>0.006951199999996049</v>
       </c>
       <c r="U82">
         <v>29</v>
@@ -6081,7 +6081,7 @@
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.004796900000030746</v>
+        <v>0.004738600000003146</v>
       </c>
       <c r="U83">
         <v>26</v>
@@ -6149,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.00498800000002575</v>
+        <v>0.004988500000003171</v>
       </c>
       <c r="U84">
         <v>27</v>
@@ -6217,7 +6217,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.004947399999991831</v>
+        <v>0.00510630000000134</v>
       </c>
       <c r="U85">
         <v>24</v>
@@ -6285,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.003173800000013216</v>
+        <v>0.003453000000000372</v>
       </c>
       <c r="U86">
         <v>17</v>
@@ -6353,7 +6353,7 @@
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.006273200000009638</v>
+        <v>0.005647500000002026</v>
       </c>
       <c r="U87">
         <v>29</v>
@@ -6421,7 +6421,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.00420489999999063</v>
+        <v>0.004917499999997688</v>
       </c>
       <c r="U88">
         <v>23</v>
@@ -6489,7 +6489,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.005467099999975744</v>
+        <v>0.00564549999999997</v>
       </c>
       <c r="U89">
         <v>30</v>
@@ -6557,7 +6557,7 @@
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.006161000000020067</v>
+        <v>0.005367899999995984</v>
       </c>
       <c r="U90">
         <v>29</v>
@@ -6625,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.004808700000012323</v>
+        <v>0.005038999999996463</v>
       </c>
       <c r="U91">
         <v>27</v>
@@ -6693,7 +6693,7 @@
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.004171000000042113</v>
+        <v>0.005130399999998758</v>
       </c>
       <c r="U92">
         <v>23</v>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.004505199999982779</v>
+        <v>0.004414199999999369</v>
       </c>
       <c r="U93">
         <v>23</v>
@@ -6829,7 +6829,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.003279399999996713</v>
+        <v>0.003573500000001673</v>
       </c>
       <c r="U94">
         <v>17</v>
@@ -6897,7 +6897,7 @@
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.005949099999952523</v>
+        <v>0.005948899999999924</v>
       </c>
       <c r="U95">
         <v>29</v>
@@ -6965,7 +6965,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.005464200000005803</v>
+        <v>0.005951400000000717</v>
       </c>
       <c r="U96">
         <v>31</v>
@@ -7033,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.004633000000012544</v>
+        <v>0.004484699999999009</v>
       </c>
       <c r="U97">
         <v>23</v>
@@ -7101,7 +7101,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.005664000000024316</v>
+        <v>0.005025100000004556</v>
       </c>
       <c r="U98">
         <v>24</v>
@@ -7169,7 +7169,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005163299999992432</v>
+        <v>0.005682000000000187</v>
       </c>
       <c r="U99">
         <v>29</v>
@@ -7237,7 +7237,7 @@
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.005642700000009881</v>
+        <v>0.005769699999994771</v>
       </c>
       <c r="U100">
         <v>31</v>
@@ -7305,7 +7305,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.006300000000010186</v>
+        <v>0.005597899999997935</v>
       </c>
       <c r="U101">
         <v>30</v>

--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.004772600000023886</v>
+        <v>0.004086099999998538</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002772999999933745</v>
+        <v>0.002614200000000011</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001907899999991969</v>
+        <v>0.001803400000000011</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.003640000000018517</v>
+        <v>0.00354510000000019</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004692399999953523</v>
+        <v>0.005337700000001888</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.001992900000004738</v>
+        <v>0.002363100000000173</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005324599999994462</v>
+        <v>0.005045199999997863</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001862299999970674</v>
+        <v>0.002104199999998002</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004373399999963112</v>
+        <v>0.004267900000002101</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.001625999999987471</v>
+        <v>0.001689900000002353</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>П0_ист</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>V0_апр</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +519,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.9895152736797</v>
+        <v>-0.0039132793305564</v>
       </c>
       <c r="F2">
-        <v>9.977888331284632</v>
+        <v>10.02648367967984</v>
       </c>
       <c r="G2">
-        <v>98.68885079889982</v>
+        <v>11.49565453727668</v>
       </c>
       <c r="H2">
-        <v>11.57007634503505</v>
+        <v>-1.780510737584382</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -552,37 +564,43 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.002814419651445036</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0.04024230230119689</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0.06374286245171215</v>
+        <v>0.002833615167989189</v>
       </c>
       <c r="P2">
-        <v>0.01508217072047231</v>
+        <v>0.04066377993265873</v>
       </c>
       <c r="Q2">
-        <v>0.009372373073260149</v>
+        <v>0.06432829692501539</v>
       </c>
       <c r="R2">
-        <v>0.01137843982991495</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0.01529253197327275</v>
+      </c>
+      <c r="S2">
+        <v>0.009990089654112579</v>
       </c>
       <c r="T2">
-        <v>0.004086099999998538</v>
-      </c>
-      <c r="U2">
+        <v>0.02288186025899556</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.003915299999789568</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -596,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.9647557594083</v>
+        <v>0.0009482396166994766</v>
       </c>
       <c r="F3">
-        <v>10.05423018980129</v>
+        <v>9.965461696233371</v>
       </c>
       <c r="G3">
-        <v>75.10766296475083</v>
+        <v>11.1925261261976</v>
       </c>
       <c r="H3">
-        <v>11.74349844682671</v>
+        <v>2.993251937637902</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,37 +638,43 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.002846315427196419</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0.03195766787344918</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0.05128515792521934</v>
+        <v>0.002808344072644852</v>
       </c>
       <c r="P3">
-        <v>0.01174186363216016</v>
+        <v>0.03130219387123812</v>
       </c>
       <c r="Q3">
-        <v>0.009722695580172819</v>
+        <v>0.05020215252518808</v>
       </c>
       <c r="R3">
-        <v>0.04032754852506389</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
+        <v>0.01158392872212909</v>
+      </c>
+      <c r="S3">
+        <v>0.00994102354432423</v>
       </c>
       <c r="T3">
-        <v>0.002614200000000011</v>
-      </c>
-      <c r="U3">
+        <v>0.02541857915176644</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.002422800000204006</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -664,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.0115484260135581</v>
+        <v>0.002538302732101253</v>
       </c>
       <c r="F4">
-        <v>10.00731938073053</v>
+        <v>10.00751687257885</v>
       </c>
       <c r="G4">
-        <v>78.65295850174221</v>
+        <v>3.236052022171196</v>
       </c>
       <c r="H4">
-        <v>3.305105234708658</v>
+        <v>0.6414651371886818</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -688,37 +712,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0.002294270654910685</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0.0141814208287561</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0.01319273419646313</v>
+        <v>0.002293563983901925</v>
       </c>
       <c r="P4">
-        <v>0.01301313224882661</v>
+        <v>0.01417045740060989</v>
       </c>
       <c r="Q4">
-        <v>0.009840246688476972</v>
+        <v>0.01317984308718051</v>
       </c>
       <c r="R4">
-        <v>0.01299131098432478</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0.01299946073658513</v>
+      </c>
+      <c r="S4">
+        <v>0.01054791445473449</v>
       </c>
       <c r="T4">
-        <v>0.001803400000000011</v>
-      </c>
-      <c r="U4">
+        <v>0.02325503166898487</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.001785800000106974</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -732,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.01910031137982974</v>
+        <v>0.003673622872133543</v>
       </c>
       <c r="F5">
-        <v>9.979206861237451</v>
+        <v>9.98205403131171</v>
       </c>
       <c r="G5">
-        <v>99.21029363585507</v>
+        <v>11.30998816640064</v>
       </c>
       <c r="H5">
-        <v>11.44967362536143</v>
+        <v>-1.825090757448278</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -756,37 +786,43 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.002796170060580492</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0.04007595135383288</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0.06293592170028048</v>
+        <v>0.002796278347394881</v>
       </c>
       <c r="P5">
-        <v>0.01533592336508011</v>
+        <v>0.04008888234346552</v>
       </c>
       <c r="Q5">
-        <v>0.009519940364991809</v>
+        <v>0.06297335227158911</v>
       </c>
       <c r="R5">
-        <v>0.02036598005043722</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0.01530614961909506</v>
+      </c>
+      <c r="S5">
+        <v>0.01045824116556257</v>
       </c>
       <c r="T5">
-        <v>0.00354510000000019</v>
-      </c>
-      <c r="U5">
+        <v>0.01543361719491097</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.003669899999295012</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -800,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9873632796507</v>
+        <v>-0.001109414772646635</v>
       </c>
       <c r="F6">
-        <v>10.00422896276981</v>
+        <v>10.01593395625521</v>
       </c>
       <c r="G6">
-        <v>174.0434250125725</v>
+        <v>0.9950882059837605</v>
       </c>
       <c r="H6">
-        <v>9.572285889250098</v>
+        <v>-9.534239453542902</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -824,37 +860,43 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0.001030207457319736</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0.01216232219489582</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0.003855061882395844</v>
+        <v>0.001031657025724789</v>
       </c>
       <c r="P6">
-        <v>0.01484055914311299</v>
+        <v>0.01219037029115689</v>
       </c>
       <c r="Q6">
-        <v>0.009152170049477543</v>
+        <v>0.003861350132097196</v>
       </c>
       <c r="R6">
-        <v>0.005849633938636752</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0.01487395912991733</v>
+      </c>
+      <c r="S6">
+        <v>0.009390682515580352</v>
       </c>
       <c r="T6">
-        <v>0.005337700000001888</v>
-      </c>
-      <c r="U6">
+        <v>0.01453701971678216</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.00468040000032488</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0.009420902907576193</v>
+        <v>-0.002919151566671743</v>
       </c>
       <c r="F7">
-        <v>9.981951609345867</v>
+        <v>10.0172051207428</v>
       </c>
       <c r="G7">
-        <v>39.90715062710196</v>
+        <v>8.669526717855412</v>
       </c>
       <c r="H7">
-        <v>13.42802847617988</v>
+        <v>10.33922609450445</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -892,37 +934,43 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0.002925917354694646</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0.02813409714117094</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0.036199368491344</v>
+        <v>0.002939372112938233</v>
       </c>
       <c r="P7">
-        <v>0.0362285244919003</v>
+        <v>0.02835275681072272</v>
       </c>
       <c r="Q7">
-        <v>0.009877600910484032</v>
+        <v>0.03651467686939828</v>
       </c>
       <c r="R7">
-        <v>0.01051272986948956</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0.03645704797676254</v>
+      </c>
+      <c r="S7">
+        <v>0.009596344994645992</v>
       </c>
       <c r="T7">
-        <v>0.002363100000000173</v>
-      </c>
-      <c r="U7">
+        <v>0.0157415975931096</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.001915099999678205</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -936,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.9929376031129</v>
+        <v>-0.004223032208574429</v>
       </c>
       <c r="F8">
-        <v>9.995250721659398</v>
+        <v>10.05650945856915</v>
       </c>
       <c r="G8">
-        <v>160.6946332325042</v>
+        <v>2.342502260428976</v>
       </c>
       <c r="H8">
-        <v>6.979581508597101</v>
+        <v>-6.642859660322446</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -960,37 +1008,43 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0.002600401753128935</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0.03988271745117317</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0.02454975519256882</v>
+        <v>0.002628090870936763</v>
       </c>
       <c r="P8">
-        <v>0.03585837052352268</v>
+        <v>0.04042017060281289</v>
       </c>
       <c r="Q8">
-        <v>0.009275451290482229</v>
+        <v>0.02486568075217974</v>
       </c>
       <c r="R8">
-        <v>0.004556948985213111</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0.03634569175697018</v>
+      </c>
+      <c r="S8">
+        <v>0.009274722146910471</v>
       </c>
       <c r="T8">
-        <v>0.005045199999997863</v>
-      </c>
-      <c r="U8">
+        <v>0.04331447247224023</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8">
+        <v>0.005008199999792851</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1004,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.9995358709582</v>
+        <v>0.002172263021860837</v>
       </c>
       <c r="F9">
-        <v>9.963779168406901</v>
+        <v>9.960613968525028</v>
       </c>
       <c r="G9">
-        <v>13.6719064705408</v>
+        <v>2.906617804140743</v>
       </c>
       <c r="H9">
-        <v>12.38790995764879</v>
+        <v>11.93955141374379</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1028,37 +1082,43 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.002691756851656006</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0.03157876097798185</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0.01637592768335741</v>
+        <v>0.002687828187862256</v>
       </c>
       <c r="P9">
-        <v>0.05523191340504077</v>
+        <v>0.03144153100756113</v>
       </c>
       <c r="Q9">
-        <v>0.009133762218877652</v>
+        <v>0.01627139488901384</v>
       </c>
       <c r="R9">
-        <v>0.01358526278928044</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0.05492539823371397</v>
+      </c>
+      <c r="S9">
+        <v>0.009491456377260633</v>
       </c>
       <c r="T9">
-        <v>0.002104199999998002</v>
-      </c>
-      <c r="U9">
+        <v>0.02845955026212164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.002184300000408257</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1072,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0.01019773954013413</v>
+        <v>-0.0003991404427532362</v>
       </c>
       <c r="F10">
-        <v>10.00802828002931</v>
+        <v>9.9889341520391</v>
       </c>
       <c r="G10">
-        <v>157.2279398955087</v>
+        <v>5.655908771624865</v>
       </c>
       <c r="H10">
-        <v>14.63376053653799</v>
+        <v>-13.46404184211227</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1096,37 +1156,43 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0.001299265590063731</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0.01720045002871008</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0.01434714865200412</v>
+        <v>0.001297371095036299</v>
       </c>
       <c r="P10">
-        <v>0.02762853927844266</v>
+        <v>0.01713919767741152</v>
       </c>
       <c r="Q10">
-        <v>0.01086912740862743</v>
+        <v>0.01431060076214789</v>
       </c>
       <c r="R10">
-        <v>0.00608093462754195</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0.02753352474432195</v>
+      </c>
+      <c r="S10">
+        <v>0.01094247297504251</v>
       </c>
       <c r="T10">
-        <v>0.004267900000002101</v>
-      </c>
-      <c r="U10">
+        <v>0.005953469441458625</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.004364800000075775</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1140,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>7.21335872453087E-05</v>
+        <v>-0.0006502838028984365</v>
       </c>
       <c r="F11">
-        <v>10.04015290601387</v>
+        <v>10.02444132920822</v>
       </c>
       <c r="G11">
-        <v>1.870776336288978</v>
+        <v>0.2951949611418515</v>
       </c>
       <c r="H11">
-        <v>8.96812276939079</v>
+        <v>8.995367688794133</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1164,33 +1230,39 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0.002141320006705567</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0.04304984869787555</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0.007957274322901074</v>
+        <v>0.002138835214483738</v>
       </c>
       <c r="P11">
-        <v>0.06979907660314565</v>
+        <v>0.04302516761322237</v>
       </c>
       <c r="Q11">
-        <v>0.009828122687433705</v>
+        <v>0.007961644082672022</v>
       </c>
       <c r="R11">
-        <v>0.02186167086326677</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
+        <v>0.0697897147719448</v>
+      </c>
+      <c r="S11">
+        <v>0.01047050540371339</v>
       </c>
       <c r="T11">
-        <v>0.001689900000002353</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>0.007452704194888546</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001505299999735144</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -540,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.0039132793305564</v>
+        <v>359.9776377855413</v>
       </c>
       <c r="F2">
-        <v>10.02648367967984</v>
+        <v>10.0264844433451</v>
       </c>
       <c r="G2">
-        <v>11.49565453727668</v>
+        <v>98.80432903578786</v>
       </c>
       <c r="H2">
-        <v>-1.780510737584382</v>
+        <v>11.63272503444757</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.003915299999789568</v>
+        <v>0.003605500000000372</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -614,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0.0009482396166994766</v>
+        <v>0.005451842523313733</v>
       </c>
       <c r="F3">
-        <v>9.965461696233371</v>
+        <v>9.965461741347104</v>
       </c>
       <c r="G3">
-        <v>11.1925261261976</v>
+        <v>75.02759276808855</v>
       </c>
       <c r="H3">
-        <v>2.993251937637902</v>
+        <v>11.58586199847853</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.002422800000204006</v>
+        <v>0.002343399999999995</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -688,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.002538302732101253</v>
+        <v>0.01453247917629313</v>
       </c>
       <c r="F4">
-        <v>10.00751687257885</v>
+        <v>10.00751719448591</v>
       </c>
       <c r="G4">
-        <v>3.236052022171196</v>
+        <v>78.78791101126616</v>
       </c>
       <c r="H4">
-        <v>0.6414651371886818</v>
+        <v>3.299016552311731</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.001785800000106974</v>
+        <v>0.001886300000000229</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0.003673622872133543</v>
+        <v>0.02108614879593325</v>
       </c>
       <c r="F5">
-        <v>9.98205403131171</v>
+        <v>9.982054707300064</v>
       </c>
       <c r="G5">
-        <v>11.30998816640064</v>
+        <v>99.16678638233412</v>
       </c>
       <c r="H5">
-        <v>-1.825090757448278</v>
+        <v>11.45629907941677</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.003669899999295012</v>
+        <v>0.003570999999999991</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -836,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.001109414772646635</v>
+        <v>359.9936536338778</v>
       </c>
       <c r="F6">
-        <v>10.01593395625521</v>
+        <v>10.01593401769737</v>
       </c>
       <c r="G6">
-        <v>0.9950882059837605</v>
+        <v>174.0416142754979</v>
       </c>
       <c r="H6">
-        <v>-9.534239453542902</v>
+        <v>9.586027461633</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.00468040000032488</v>
+        <v>0.004369599999999974</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -910,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.002919151566671743</v>
+        <v>359.9833032210303</v>
       </c>
       <c r="F7">
-        <v>10.0172051207428</v>
+        <v>10.01720554608328</v>
       </c>
       <c r="G7">
-        <v>8.669526717855412</v>
+        <v>39.9801115726221</v>
       </c>
       <c r="H7">
-        <v>10.33922609450445</v>
+        <v>13.49297186482246</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.001915099999678205</v>
+        <v>0.002096199999999993</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -984,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-0.004223032208574429</v>
+        <v>359.9759397722368</v>
       </c>
       <c r="F8">
-        <v>10.05650945856915</v>
+        <v>10.05651034525853</v>
       </c>
       <c r="G8">
-        <v>2.342502260428976</v>
+        <v>160.5755857144804</v>
       </c>
       <c r="H8">
-        <v>-6.642859660322446</v>
+        <v>7.043784586914488</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="V8">
-        <v>0.005008199999792851</v>
+        <v>0.005051700000000103</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1058,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0.002172263021860837</v>
+        <v>0.01249536439872464</v>
       </c>
       <c r="F9">
-        <v>9.960613968525028</v>
+        <v>9.960614205394291</v>
       </c>
       <c r="G9">
-        <v>2.906617804140743</v>
+        <v>13.68219218732884</v>
       </c>
       <c r="H9">
-        <v>11.93955141374379</v>
+        <v>12.28825923476467</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="V9">
-        <v>0.002184300000408257</v>
+        <v>0.002383699999999767</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1132,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.0003991404427532362</v>
+        <v>359.9977105602617</v>
       </c>
       <c r="F10">
-        <v>9.9889341520391</v>
+        <v>9.988934160013578</v>
       </c>
       <c r="G10">
-        <v>5.655908771624865</v>
+        <v>157.2139364969907</v>
       </c>
       <c r="H10">
-        <v>-13.46404184211227</v>
+        <v>14.60375728225764</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.004364800000075775</v>
+        <v>0.00418739999999973</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1206,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.0006502838028984365</v>
+        <v>359.9962832325397</v>
       </c>
       <c r="F11">
-        <v>10.02444132920822</v>
+        <v>10.02444135030012</v>
       </c>
       <c r="G11">
-        <v>0.2951949611418515</v>
+        <v>1.879562736151908</v>
       </c>
       <c r="H11">
-        <v>8.995367688794133</v>
+        <v>9.000209993199327</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001505299999735144</v>
+        <v>0.001434399999999947</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -564,43 +576,49 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
+        <v>70.5836694631676</v>
+      </c>
+      <c r="P2">
+        <v>15.86351711824204</v>
+      </c>
+      <c r="Q2">
         <v>0.002833615167989189</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.04066377993265873</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.06432829692501539</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.01529253197327275</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.009990089654112579</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.02288186025899556</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.003605500000000372</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.00375679999999079</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -638,43 +656,49 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
+        <v>53.15729242622643</v>
+      </c>
+      <c r="P3">
+        <v>18.24654998125369</v>
+      </c>
+      <c r="Q3">
         <v>0.002808344072644852</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.03130219387123812</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.05020215252518808</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.01158392872212909</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.00994102354432423</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.02541857915176644</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.002343399999999995</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.00235290000000532</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -712,43 +736,49 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
+        <v>31.78110444847121</v>
+      </c>
+      <c r="P4">
+        <v>9.600323291964518</v>
+      </c>
+      <c r="Q4">
         <v>0.002293563983901925</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.01417045740060989</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.01317984308718051</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.01299946073658513</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.01054791445473449</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.02325503166898487</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.001886300000000229</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.001674600000001192</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -786,43 +816,49 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
+        <v>70.65997563450101</v>
+      </c>
+      <c r="P5">
+        <v>15.62800439848659</v>
+      </c>
+      <c r="Q5">
         <v>0.002796278347394881</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.04008888234346552</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.06297335227158911</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.01530614961909506</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.01045824116556257</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.01543361719491097</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.003570999999999991</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.003533799999985376</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -860,43 +896,49 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
+        <v>149.6811986516602</v>
+      </c>
+      <c r="P6">
+        <v>4.681853178574333</v>
+      </c>
+      <c r="Q6">
         <v>0.001031657025724789</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.01219037029115689</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.003861350132097196</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.01487395912991733</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.009390682515580352</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.01453701971678216</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.005867999999992435</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.004369599999999974</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -934,43 +976,49 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
+        <v>30.29171212540156</v>
+      </c>
+      <c r="P7">
+        <v>22.93993753784355</v>
+      </c>
+      <c r="Q7">
         <v>0.002939372112938233</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.02835275681072272</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.03651467686939828</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.03645704797676254</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.009596344994645992</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.0157415975931096</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.002096199999999993</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.001911200000023427</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1008,43 +1056,49 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
+        <v>97.60860989602811</v>
+      </c>
+      <c r="P8">
+        <v>4.012561818897875</v>
+      </c>
+      <c r="Q8">
         <v>0.002628090870936763</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.04042017060281289</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.02486568075217974</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.03634569175697018</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.009274722146910471</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.04331447247224023</v>
       </c>
-      <c r="U8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8">
-        <v>0.005051700000000103</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <v>0.005024800000001051</v>
+      </c>
+      <c r="Y8">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1082,43 +1136,49 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
+        <v>12.13678479684286</v>
+      </c>
+      <c r="P9">
+        <v>22.16718395732714</v>
+      </c>
+      <c r="Q9">
         <v>0.002687828187862256</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.03144153100756113</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.01627139488901384</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.05492539823371397</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.009491456377260633</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.02845955026212164</v>
       </c>
-      <c r="U9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9">
-        <v>0.002383699999999767</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>0.001659399999994093</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1156,43 +1216,49 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
+        <v>137.8284765463746</v>
+      </c>
+      <c r="P10">
+        <v>11.85241387259395</v>
+      </c>
+      <c r="Q10">
         <v>0.001297371095036299</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.01713919767741152</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.01431060076214789</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.02753352474432195</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.01094247297504251</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.005953469441458625</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.00418739999999973</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.004064899999974614</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1230,39 +1296,45 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
+        <v>4.786026558728594</v>
+      </c>
+      <c r="P11">
+        <v>18.26621002063927</v>
+      </c>
+      <c r="Q11">
         <v>0.002138835214483738</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.04302516761322237</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.007961644082672022</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.0697897147719448</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.01047050540371339</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.007452704194888546</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001434399999999947</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.001740999999981341</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.1.xlsx
+++ b/tests/tests8/ЛМ 0.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.00375679999999079</v>
+        <v>0.004044199999981402</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.00235290000000532</v>
+        <v>0.002372199999996383</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.001674600000001192</v>
+        <v>0.001660200000003442</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.003533799999985376</v>
+        <v>0.003830700000008846</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.005867999999992435</v>
+        <v>0.00421169999998483</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.001911200000023427</v>
+        <v>0.001818700000001172</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="X8">
-        <v>0.005024800000001051</v>
+        <v>0.004832899999996698</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="X9">
-        <v>0.001659399999994093</v>
+        <v>0.001595500000007632</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.004064899999974614</v>
+        <v>0.004406900000020642</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1329,13 +1329,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.001740999999981341</v>
+        <v>0.00142390000002024</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.9936109302177</v>
+      </c>
+      <c r="F12">
+        <v>9.999671695936202</v>
+      </c>
+      <c r="G12">
+        <v>138.8404128236243</v>
+      </c>
+      <c r="H12">
+        <v>3.250171319788128</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.03687513086638</v>
+      </c>
+      <c r="P12">
+        <v>5.808186194790579</v>
+      </c>
+      <c r="Q12">
+        <v>0.002092576871336032</v>
+      </c>
+      <c r="R12">
+        <v>0.01107098653209397</v>
+      </c>
+      <c r="S12">
+        <v>0.01013589201965531</v>
+      </c>
+      <c r="T12">
+        <v>0.007379727943006511</v>
+      </c>
+      <c r="U12">
+        <v>0.008897665624174657</v>
+      </c>
+      <c r="V12">
+        <v>0.003044132696263424</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.002582799999998997</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0.005542990260298556</v>
+      </c>
+      <c r="F13">
+        <v>9.968229604726771</v>
+      </c>
+      <c r="G13">
+        <v>32.26205279957696</v>
+      </c>
+      <c r="H13">
+        <v>3.222097240358342</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.94093808531644</v>
+      </c>
+      <c r="P13">
+        <v>11.1032732490996</v>
+      </c>
+      <c r="Q13">
+        <v>0.002194005049151589</v>
+      </c>
+      <c r="R13">
+        <v>0.01648293786364746</v>
+      </c>
+      <c r="S13">
+        <v>0.009555548148183865</v>
+      </c>
+      <c r="T13">
+        <v>0.02446914058212229</v>
+      </c>
+      <c r="U13">
+        <v>0.009625871873112212</v>
+      </c>
+      <c r="V13">
+        <v>0.02694117988343269</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.001985099999984641</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0.006063922674223056</v>
+      </c>
+      <c r="F14">
+        <v>10.02210150049669</v>
+      </c>
+      <c r="G14">
+        <v>27.7608201158163</v>
+      </c>
+      <c r="H14">
+        <v>11.94125750213332</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.33655162678357</v>
+      </c>
+      <c r="P14">
+        <v>21.5639234039193</v>
+      </c>
+      <c r="Q14">
+        <v>0.002823921330378648</v>
+      </c>
+      <c r="R14">
+        <v>0.02631897174386796</v>
+      </c>
+      <c r="S14">
+        <v>0.02424456652592092</v>
+      </c>
+      <c r="T14">
+        <v>0.04019658100465901</v>
+      </c>
+      <c r="U14">
+        <v>0.01007241984298785</v>
+      </c>
+      <c r="V14">
+        <v>0.02289710880168301</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>0.001626999999984946</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.999217589197</v>
+      </c>
+      <c r="F15">
+        <v>10.01068521969007</v>
+      </c>
+      <c r="G15">
+        <v>139.9651667860798</v>
+      </c>
+      <c r="H15">
+        <v>5.861416910820664</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.56866760849371</v>
+      </c>
+      <c r="P15">
+        <v>6.038728452288015</v>
+      </c>
+      <c r="Q15">
+        <v>0.002383428587160143</v>
+      </c>
+      <c r="R15">
+        <v>0.02248009306846912</v>
+      </c>
+      <c r="S15">
+        <v>0.02007650391055276</v>
+      </c>
+      <c r="T15">
+        <v>0.0134241378768911</v>
+      </c>
+      <c r="U15">
+        <v>0.008771371411711327</v>
+      </c>
+      <c r="V15">
+        <v>0.01101770811052256</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.003741800000000239</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0.01785505152862753</v>
+      </c>
+      <c r="F16">
+        <v>9.977784364118413</v>
+      </c>
+      <c r="G16">
+        <v>92.47660339010636</v>
+      </c>
+      <c r="H16">
+        <v>12.24781228681113</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>67.01426695593072</v>
+      </c>
+      <c r="P16">
+        <v>17.22482478135005</v>
+      </c>
+      <c r="Q16">
+        <v>0.002833610078401306</v>
+      </c>
+      <c r="R16">
+        <v>0.03958147434081063</v>
+      </c>
+      <c r="S16">
+        <v>0.0661446433602088</v>
+      </c>
+      <c r="T16">
+        <v>0.01051976523572241</v>
+      </c>
+      <c r="U16">
+        <v>0.01038021459110681</v>
+      </c>
+      <c r="V16">
+        <v>0.01166701006795913</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.003682400000002417</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.004890633675608322</v>
+      </c>
+      <c r="F17">
+        <v>9.995254955533266</v>
+      </c>
+      <c r="G17">
+        <v>152.8075228740969</v>
+      </c>
+      <c r="H17">
+        <v>5.142727031674867</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.66556544771217</v>
+      </c>
+      <c r="P17">
+        <v>4.416186824502854</v>
+      </c>
+      <c r="Q17">
+        <v>0.002230562116254525</v>
+      </c>
+      <c r="R17">
+        <v>0.01674586741912149</v>
+      </c>
+      <c r="S17">
+        <v>0.013768705611475</v>
+      </c>
+      <c r="T17">
+        <v>0.009358606772936056</v>
+      </c>
+      <c r="U17">
+        <v>0.0100165794750478</v>
+      </c>
+      <c r="V17">
+        <v>0.004150816942841732</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.0038248999999837</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0.00983512243324732</v>
+      </c>
+      <c r="F18">
+        <v>9.959201841561727</v>
+      </c>
+      <c r="G18">
+        <v>40.15934488595893</v>
+      </c>
+      <c r="H18">
+        <v>9.206874957951008</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.72631380107891</v>
+      </c>
+      <c r="P18">
+        <v>17.83423226050144</v>
+      </c>
+      <c r="Q18">
+        <v>0.002696006113625425</v>
+      </c>
+      <c r="R18">
+        <v>0.02237806954695053</v>
+      </c>
+      <c r="S18">
+        <v>0.02375453376113012</v>
+      </c>
+      <c r="T18">
+        <v>0.02694660933468594</v>
+      </c>
+      <c r="U18">
+        <v>0.008511349697683183</v>
+      </c>
+      <c r="V18">
+        <v>0.03416997546716806</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>0.00194210000000794</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9834762197343</v>
+      </c>
+      <c r="F19">
+        <v>9.986308219941106</v>
+      </c>
+      <c r="G19">
+        <v>52.97384566547884</v>
+      </c>
+      <c r="H19">
+        <v>9.377815613555333</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.66402794353121</v>
+      </c>
+      <c r="P19">
+        <v>17.41215362326662</v>
+      </c>
+      <c r="Q19">
+        <v>0.002725533634743388</v>
+      </c>
+      <c r="R19">
+        <v>0.0234834354477013</v>
+      </c>
+      <c r="S19">
+        <v>0.02936898023407269</v>
+      </c>
+      <c r="T19">
+        <v>0.02109610621843079</v>
+      </c>
+      <c r="U19">
+        <v>0.01030817012813229</v>
+      </c>
+      <c r="V19">
+        <v>0.007185201128005756</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.002359400000017331</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9675299370635</v>
+      </c>
+      <c r="F20">
+        <v>10.04329621983861</v>
+      </c>
+      <c r="G20">
+        <v>117.039424102008</v>
+      </c>
+      <c r="H20">
+        <v>9.132350058119711</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.38587951322432</v>
+      </c>
+      <c r="P20">
+        <v>11.19595412661585</v>
+      </c>
+      <c r="Q20">
+        <v>0.002713197719332519</v>
+      </c>
+      <c r="R20">
+        <v>0.0381029482585796</v>
+      </c>
+      <c r="S20">
+        <v>0.04713732054159</v>
+      </c>
+      <c r="T20">
+        <v>0.02342561919751357</v>
+      </c>
+      <c r="U20">
+        <v>0.01022540202524799</v>
+      </c>
+      <c r="V20">
+        <v>0.03421488459981259</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>0.004400599999996757</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9992056144063</v>
+      </c>
+      <c r="F21">
+        <v>9.983445012234315</v>
+      </c>
+      <c r="G21">
+        <v>17.53701963538009</v>
+      </c>
+      <c r="H21">
+        <v>12.15655236602979</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.65982980366344</v>
+      </c>
+      <c r="P21">
+        <v>21.99290715299902</v>
+      </c>
+      <c r="Q21">
+        <v>0.002740665832168663</v>
+      </c>
+      <c r="R21">
+        <v>0.02900727569863356</v>
+      </c>
+      <c r="S21">
+        <v>0.01844072617967763</v>
+      </c>
+      <c r="T21">
+        <v>0.0496008503454398</v>
+      </c>
+      <c r="U21">
+        <v>0.009646582421099248</v>
+      </c>
+      <c r="V21">
+        <v>0.006018258767445696</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.001704700000004777</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0.01480762593976342</v>
+      </c>
+      <c r="F22">
+        <v>9.954026014282048</v>
+      </c>
+      <c r="G22">
+        <v>105.8544087692936</v>
+      </c>
+      <c r="H22">
+        <v>13.68399773386084</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.46079209215509</v>
+      </c>
+      <c r="P22">
+        <v>17.2070927364584</v>
+      </c>
+      <c r="Q22">
+        <v>0.00292658930301649</v>
+      </c>
+      <c r="R22">
+        <v>0.0533845613348203</v>
+      </c>
+      <c r="S22">
+        <v>0.09192798270224942</v>
+      </c>
+      <c r="T22">
+        <v>0.03183602034367154</v>
+      </c>
+      <c r="U22">
+        <v>0.009432591748469107</v>
+      </c>
+      <c r="V22">
+        <v>0.02774594901227358</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>0.00417070000000308</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.9848738464636</v>
+      </c>
+      <c r="F23">
+        <v>10.02689114423509</v>
+      </c>
+      <c r="G23">
+        <v>8.886959519736926</v>
+      </c>
+      <c r="H23">
+        <v>6.516751060202543</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>8.920495592383414</v>
+      </c>
+      <c r="P23">
+        <v>15.32207849159483</v>
+      </c>
+      <c r="Q23">
+        <v>0.002227730156513859</v>
+      </c>
+      <c r="R23">
+        <v>0.0278425335248132</v>
+      </c>
+      <c r="S23">
+        <v>0.009026566220846008</v>
+      </c>
+      <c r="T23">
+        <v>0.04553453155503727</v>
+      </c>
+      <c r="U23">
+        <v>0.01013049642154084</v>
+      </c>
+      <c r="V23">
+        <v>0.03875724687499381</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>0.002245500000014999</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.003489977690185885</v>
+      </c>
+      <c r="F24">
+        <v>10.03628127381822</v>
+      </c>
+      <c r="G24">
+        <v>37.64598521341375</v>
+      </c>
+      <c r="H24">
+        <v>8.770612170005959</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.75245942916026</v>
+      </c>
+      <c r="P24">
+        <v>17.49057106382542</v>
+      </c>
+      <c r="Q24">
+        <v>0.0026821589554007</v>
+      </c>
+      <c r="R24">
+        <v>0.02203242439798662</v>
+      </c>
+      <c r="S24">
+        <v>0.0217796624412868</v>
+      </c>
+      <c r="T24">
+        <v>0.0277887959071896</v>
+      </c>
+      <c r="U24">
+        <v>0.01102583627860551</v>
+      </c>
+      <c r="V24">
+        <v>0.0111797330419863</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001701200000013614</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9968997639583</v>
+      </c>
+      <c r="F25">
+        <v>9.982008830755694</v>
+      </c>
+      <c r="G25">
+        <v>93.11692838179854</v>
+      </c>
+      <c r="H25">
+        <v>14.33343078758325</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.68267650810559</v>
+      </c>
+      <c r="P25">
+        <v>19.43898165087108</v>
+      </c>
+      <c r="Q25">
+        <v>0.002956334631191571</v>
+      </c>
+      <c r="R25">
+        <v>0.04706717584143556</v>
+      </c>
+      <c r="S25">
+        <v>0.08751987571219726</v>
+      </c>
+      <c r="T25">
+        <v>0.01364499962238682</v>
+      </c>
+      <c r="U25">
+        <v>0.009160716034668779</v>
+      </c>
+      <c r="V25">
+        <v>0.01165626678192985</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.00347170000000574</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.9946899007384</v>
+      </c>
+      <c r="F26">
+        <v>9.99701913230299</v>
+      </c>
+      <c r="G26">
+        <v>172.7963397713755</v>
+      </c>
+      <c r="H26">
+        <v>11.39123710957437</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9891927791176</v>
+      </c>
+      <c r="P26">
+        <v>6.820502229265336</v>
+      </c>
+      <c r="Q26">
+        <v>0.001023607874974209</v>
+      </c>
+      <c r="R26">
+        <v>0.01095037252833752</v>
+      </c>
+      <c r="S26">
+        <v>0.004070853298326116</v>
+      </c>
+      <c r="T26">
+        <v>0.01509680850522434</v>
+      </c>
+      <c r="U26">
+        <v>0.009737588051829209</v>
+      </c>
+      <c r="V26">
+        <v>0.001997020095613132</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.005782899999985602</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0.01135192506012868</v>
+      </c>
+      <c r="F27">
+        <v>9.988330446428943</v>
+      </c>
+      <c r="G27">
+        <v>156.648786941209</v>
+      </c>
+      <c r="H27">
+        <v>9.969609124110642</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.4106619992946</v>
+      </c>
+      <c r="P27">
+        <v>6.929927841186381</v>
+      </c>
+      <c r="Q27">
+        <v>0.001426179732665848</v>
+      </c>
+      <c r="R27">
+        <v>0.02753687175317392</v>
+      </c>
+      <c r="S27">
+        <v>0.01828393665792707</v>
+      </c>
+      <c r="T27">
+        <v>0.03267652531339132</v>
+      </c>
+      <c r="U27">
+        <v>0.01069020593137521</v>
+      </c>
+      <c r="V27">
+        <v>0.01060174012450569</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.004491799999982504</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0.006408174676032255</v>
+      </c>
+      <c r="F28">
+        <v>10.01130780953327</v>
+      </c>
+      <c r="G28">
+        <v>55.48774013711487</v>
+      </c>
+      <c r="H28">
+        <v>9.228778508555097</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>36.99004100776548</v>
+      </c>
+      <c r="P28">
+        <v>17.11393132616898</v>
+      </c>
+      <c r="Q28">
+        <v>0.002720912750977426</v>
+      </c>
+      <c r="R28">
+        <v>0.02357415124037134</v>
+      </c>
+      <c r="S28">
+        <v>0.02983328612167368</v>
+      </c>
+      <c r="T28">
+        <v>0.01980626163127169</v>
+      </c>
+      <c r="U28">
+        <v>0.009600874032552085</v>
+      </c>
+      <c r="V28">
+        <v>0.00563513190883886</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.001998299999996789</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.9803000911069</v>
+      </c>
+      <c r="F29">
+        <v>9.998947088275559</v>
+      </c>
+      <c r="G29">
+        <v>76.62583511564758</v>
+      </c>
+      <c r="H29">
+        <v>12.78614380575887</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.81464809268272</v>
+      </c>
+      <c r="P29">
+        <v>19.45576525116005</v>
+      </c>
+      <c r="Q29">
+        <v>0.002878932457403025</v>
+      </c>
+      <c r="R29">
+        <v>0.03467619112676834</v>
+      </c>
+      <c r="S29">
+        <v>0.05927945471902941</v>
+      </c>
+      <c r="T29">
+        <v>0.01123359213614475</v>
+      </c>
+      <c r="U29">
+        <v>0.01035250387166715</v>
+      </c>
+      <c r="V29">
+        <v>0.0050662480699697</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002547600000013972</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.9940167509101</v>
+      </c>
+      <c r="F30">
+        <v>10.01709701447479</v>
+      </c>
+      <c r="G30">
+        <v>131.2114986171819</v>
+      </c>
+      <c r="H30">
+        <v>9.760701894497945</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.81434427697819</v>
+      </c>
+      <c r="P30">
+        <v>9.985782955902568</v>
+      </c>
+      <c r="Q30">
+        <v>0.002722915775359954</v>
+      </c>
+      <c r="R30">
+        <v>0.049847653271754</v>
+      </c>
+      <c r="S30">
+        <v>0.05483953964509163</v>
+      </c>
+      <c r="T30">
+        <v>0.04396714931351837</v>
+      </c>
+      <c r="U30">
+        <v>0.0095813598669861</v>
+      </c>
+      <c r="V30">
+        <v>0.01215987921643246</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.004189199999984794</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.9872693178075</v>
+      </c>
+      <c r="F31">
+        <v>10.03800582879152</v>
+      </c>
+      <c r="G31">
+        <v>155.3685722797114</v>
+      </c>
+      <c r="H31">
+        <v>6.456829742657041</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.08093258579937</v>
+      </c>
+      <c r="P31">
+        <v>4.413769345279658</v>
+      </c>
+      <c r="Q31">
+        <v>0.002587635937248717</v>
+      </c>
+      <c r="R31">
+        <v>0.0307269473269011</v>
+      </c>
+      <c r="S31">
+        <v>0.02199025449691663</v>
+      </c>
+      <c r="T31">
+        <v>0.02412359628257242</v>
+      </c>
+      <c r="U31">
+        <v>0.01005779151218721</v>
+      </c>
+      <c r="V31">
+        <v>0.02916598182182306</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>0.005155500000000757</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.007265786486212142</v>
+      </c>
+      <c r="F32">
+        <v>9.97932365395218</v>
+      </c>
+      <c r="G32">
+        <v>115.9404996105349</v>
+      </c>
+      <c r="H32">
+        <v>7.544954207557489</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.93158153466335</v>
+      </c>
+      <c r="P32">
+        <v>9.915503177857623</v>
+      </c>
+      <c r="Q32">
+        <v>0.002547666721425107</v>
+      </c>
+      <c r="R32">
+        <v>0.02893290563476048</v>
+      </c>
+      <c r="S32">
+        <v>0.03345579561337646</v>
+      </c>
+      <c r="T32">
+        <v>0.0146125228440289</v>
+      </c>
+      <c r="U32">
+        <v>0.009954353369168266</v>
+      </c>
+      <c r="V32">
+        <v>0.01444260834235249</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.003789799999992738</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.0162191810219667</v>
+      </c>
+      <c r="F33">
+        <v>9.978567780835162</v>
+      </c>
+      <c r="G33">
+        <v>51.43309047003821</v>
+      </c>
+      <c r="H33">
+        <v>14.47292854933086</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>39.04363931973743</v>
+      </c>
+      <c r="P33">
+        <v>23.4200959328203</v>
+      </c>
+      <c r="Q33">
+        <v>0.002973087673476388</v>
+      </c>
+      <c r="R33">
+        <v>0.03124951493596907</v>
+      </c>
+      <c r="S33">
+        <v>0.04940196590261758</v>
+      </c>
+      <c r="T33">
+        <v>0.03183855378311109</v>
+      </c>
+      <c r="U33">
+        <v>0.01026046237766644</v>
+      </c>
+      <c r="V33">
+        <v>0.01292269429813885</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.001984399999997777</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.9764567323273</v>
+      </c>
+      <c r="F34">
+        <v>10.03440768932876</v>
+      </c>
+      <c r="G34">
+        <v>154.5064012664586</v>
+      </c>
+      <c r="H34">
+        <v>7.513084058393387</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.11741215351962</v>
+      </c>
+      <c r="P34">
+        <v>5.097857544790497</v>
+      </c>
+      <c r="Q34">
+        <v>0.002677495388013154</v>
+      </c>
+      <c r="R34">
+        <v>0.04448695524679138</v>
+      </c>
+      <c r="S34">
+        <v>0.03077545235623809</v>
+      </c>
+      <c r="T34">
+        <v>0.04095801155180404</v>
+      </c>
+      <c r="U34">
+        <v>0.01008919352015033</v>
+      </c>
+      <c r="V34">
+        <v>0.02883895490872921</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>0.004843599999986736</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.03104503390632397</v>
+      </c>
+      <c r="F35">
+        <v>9.998698007261748</v>
+      </c>
+      <c r="G35">
+        <v>44.79820482659145</v>
+      </c>
+      <c r="H35">
+        <v>8.344508657885136</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.60369920961132</v>
+      </c>
+      <c r="P35">
+        <v>16.66290284388382</v>
+      </c>
+      <c r="Q35">
+        <v>0.002661023566301237</v>
+      </c>
+      <c r="R35">
+        <v>0.02147755259138238</v>
+      </c>
+      <c r="S35">
+        <v>0.02316481535456798</v>
+      </c>
+      <c r="T35">
+        <v>0.02358900212280006</v>
+      </c>
+      <c r="U35">
+        <v>0.009606978040763541</v>
+      </c>
+      <c r="V35">
+        <v>0.02523527422984866</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>0.00190680000000043</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9979537563407</v>
+      </c>
+      <c r="F36">
+        <v>10.03050086170061</v>
+      </c>
+      <c r="G36">
+        <v>6.979141369851029</v>
+      </c>
+      <c r="H36">
+        <v>12.31290261953297</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.64923908210499</v>
+      </c>
+      <c r="P36">
+        <v>22.27838575626137</v>
+      </c>
+      <c r="Q36">
+        <v>0.002532404656701162</v>
+      </c>
+      <c r="R36">
+        <v>0.04003580512121235</v>
+      </c>
+      <c r="S36">
+        <v>0.01233127910146898</v>
+      </c>
+      <c r="T36">
+        <v>0.06948661793594922</v>
+      </c>
+      <c r="U36">
+        <v>0.009552659377158608</v>
+      </c>
+      <c r="V36">
+        <v>0.01671042930437474</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.001442800000006628</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.9922472774697</v>
+      </c>
+      <c r="F37">
+        <v>10.01147576891665</v>
+      </c>
+      <c r="G37">
+        <v>82.51978630262619</v>
+      </c>
+      <c r="H37">
+        <v>6.711125317328055</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.31170085894149</v>
+      </c>
+      <c r="P37">
+        <v>12.45340673504642</v>
+      </c>
+      <c r="Q37">
+        <v>0.002544966012489268</v>
+      </c>
+      <c r="R37">
+        <v>0.02133133000709804</v>
+      </c>
+      <c r="S37">
+        <v>0.02592286254843917</v>
+      </c>
+      <c r="T37">
+        <v>0.009056511665956449</v>
+      </c>
+      <c r="U37">
+        <v>0.01043432167320166</v>
+      </c>
+      <c r="V37">
+        <v>0.01458081519429368</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002261000000004287</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0.02348917303014217</v>
+      </c>
+      <c r="F38">
+        <v>9.903653772314751</v>
+      </c>
+      <c r="G38">
+        <v>131.1648544244474</v>
+      </c>
+      <c r="H38">
+        <v>10.07985133795652</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.75387108051189</v>
+      </c>
+      <c r="P38">
+        <v>10.30258050303473</v>
+      </c>
+      <c r="Q38">
+        <v>0.002634983172710862</v>
+      </c>
+      <c r="R38">
+        <v>0.0504791451997132</v>
+      </c>
+      <c r="S38">
+        <v>0.05692724623259658</v>
+      </c>
+      <c r="T38">
+        <v>0.04629678780667174</v>
+      </c>
+      <c r="U38">
+        <v>0.01101026652096788</v>
+      </c>
+      <c r="V38">
+        <v>0.05544544962024048</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38">
+        <v>0.004846200000002909</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.004442596329188747</v>
+      </c>
+      <c r="F39">
+        <v>9.98103062055411</v>
+      </c>
+      <c r="G39">
+        <v>170.0394887138408</v>
+      </c>
+      <c r="H39">
+        <v>8.546792266918086</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>132.900194822562</v>
+      </c>
+      <c r="P39">
+        <v>4.02056672039742</v>
+      </c>
+      <c r="Q39">
+        <v>0.001129571229809604</v>
+      </c>
+      <c r="R39">
+        <v>0.01791707809562727</v>
+      </c>
+      <c r="S39">
+        <v>0.007105755223181686</v>
+      </c>
+      <c r="T39">
+        <v>0.02011741807173384</v>
+      </c>
+      <c r="U39">
+        <v>0.009694483235038283</v>
+      </c>
+      <c r="V39">
+        <v>0.01709015969449953</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.004522800000017924</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.9775736187692</v>
+      </c>
+      <c r="F40">
+        <v>10.02400752640449</v>
+      </c>
+      <c r="G40">
+        <v>69.29348993641068</v>
+      </c>
+      <c r="H40">
+        <v>13.35781830604935</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.02391447006281</v>
+      </c>
+      <c r="P40">
+        <v>20.78762337120032</v>
+      </c>
+      <c r="Q40">
+        <v>0.002919893898177599</v>
+      </c>
+      <c r="R40">
+        <v>0.03373142215539651</v>
+      </c>
+      <c r="S40">
+        <v>0.05774073503803691</v>
+      </c>
+      <c r="T40">
+        <v>0.01702027709185807</v>
+      </c>
+      <c r="U40">
+        <v>0.01062382994629821</v>
+      </c>
+      <c r="V40">
+        <v>0.0155527195053092</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002262600000022985</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9959519032198</v>
+      </c>
+      <c r="F41">
+        <v>10.00006487966564</v>
+      </c>
+      <c r="G41">
+        <v>98.43535904255153</v>
+      </c>
+      <c r="H41">
+        <v>12.57855364977161</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.19969231587253</v>
+      </c>
+      <c r="P41">
+        <v>16.91025402641525</v>
+      </c>
+      <c r="Q41">
+        <v>0.002875479077339167</v>
+      </c>
+      <c r="R41">
+        <v>0.0440853499901805</v>
+      </c>
+      <c r="S41">
+        <v>0.07367080752624298</v>
+      </c>
+      <c r="T41">
+        <v>0.01710270318279491</v>
+      </c>
+      <c r="U41">
+        <v>0.01045881914404834</v>
+      </c>
+      <c r="V41">
+        <v>0.001773378451289419</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.003693999999995867</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.995092108196</v>
+      </c>
+      <c r="F42">
+        <v>10.00874908867678</v>
+      </c>
+      <c r="G42">
+        <v>73.21737017464943</v>
+      </c>
+      <c r="H42">
+        <v>3.68208484906043</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.92108876571551</v>
+      </c>
+      <c r="P42">
+        <v>10.21256508150978</v>
+      </c>
+      <c r="Q42">
+        <v>0.002334342605664499</v>
+      </c>
+      <c r="R42">
+        <v>0.01486612042166276</v>
+      </c>
+      <c r="S42">
+        <v>0.01409673578518388</v>
+      </c>
+      <c r="T42">
+        <v>0.01353687115809822</v>
+      </c>
+      <c r="U42">
+        <v>0.009686893748140564</v>
+      </c>
+      <c r="V42">
+        <v>0.02265416554000304</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001573400000012271</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.02576580983591986</v>
+      </c>
+      <c r="F43">
+        <v>9.99541199237413</v>
+      </c>
+      <c r="G43">
+        <v>45.34581093145588</v>
+      </c>
+      <c r="H43">
+        <v>3.51006376930967</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.97077992322313</v>
+      </c>
+      <c r="P43">
+        <v>11.14911285387713</v>
+      </c>
+      <c r="Q43">
+        <v>0.002287321964246492</v>
+      </c>
+      <c r="R43">
+        <v>0.01546203891741182</v>
+      </c>
+      <c r="S43">
+        <v>0.01150193740746135</v>
+      </c>
+      <c r="T43">
+        <v>0.02046692505221442</v>
+      </c>
+      <c r="U43">
+        <v>0.01001356302013181</v>
+      </c>
+      <c r="V43">
+        <v>0.04604206981564096</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43">
+        <v>0.001565700000014658</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0.02256287096614933</v>
+      </c>
+      <c r="F44">
+        <v>10.01099873397278</v>
+      </c>
+      <c r="G44">
+        <v>67.47122833183198</v>
+      </c>
+      <c r="H44">
+        <v>14.39218506085589</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.71302338852691</v>
+      </c>
+      <c r="P44">
+        <v>22.12842426715058</v>
+      </c>
+      <c r="Q44">
+        <v>0.002955673427157287</v>
+      </c>
+      <c r="R44">
+        <v>0.03527235409514513</v>
+      </c>
+      <c r="S44">
+        <v>0.06298219010313186</v>
+      </c>
+      <c r="T44">
+        <v>0.01992299356687618</v>
+      </c>
+      <c r="U44">
+        <v>0.009376926692339433</v>
+      </c>
+      <c r="V44">
+        <v>0.007747261085045059</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.002372000000008256</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9922987353385</v>
+      </c>
+      <c r="F45">
+        <v>9.977527673185206</v>
+      </c>
+      <c r="G45">
+        <v>20.65722653146607</v>
+      </c>
+      <c r="H45">
+        <v>10.32902587743405</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.29356075095762</v>
+      </c>
+      <c r="P45">
+        <v>19.75242333037423</v>
+      </c>
+      <c r="Q45">
+        <v>0.002665446518145296</v>
+      </c>
+      <c r="R45">
+        <v>0.02566238229398846</v>
+      </c>
+      <c r="S45">
+        <v>0.01747056064633975</v>
+      </c>
+      <c r="T45">
+        <v>0.04180985152848166</v>
+      </c>
+      <c r="U45">
+        <v>0.009780993403180846</v>
+      </c>
+      <c r="V45">
+        <v>0.009717303077040568</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.001637600000009343</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.00453786419427665</v>
+      </c>
+      <c r="F46">
+        <v>10.02279320459817</v>
+      </c>
+      <c r="G46">
+        <v>150.2661370043455</v>
+      </c>
+      <c r="H46">
+        <v>4.27339472791443</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.5115499100472</v>
+      </c>
+      <c r="P46">
+        <v>4.745712443787343</v>
+      </c>
+      <c r="Q46">
+        <v>0.002118679183629442</v>
+      </c>
+      <c r="R46">
+        <v>0.01248642964075996</v>
+      </c>
+      <c r="S46">
+        <v>0.01107545521171629</v>
+      </c>
+      <c r="T46">
+        <v>0.006059933469254049</v>
+      </c>
+      <c r="U46">
+        <v>0.009980575941988448</v>
+      </c>
+      <c r="V46">
+        <v>0.01838785222975472</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.003099500000018907</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9963119218201</v>
+      </c>
+      <c r="F47">
+        <v>9.997947474096865</v>
+      </c>
+      <c r="G47">
+        <v>178.0205040915112</v>
+      </c>
+      <c r="H47">
+        <v>9.592752821295033</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.1841060455741</v>
+      </c>
+      <c r="P47">
+        <v>4.410751458195931</v>
+      </c>
+      <c r="Q47">
+        <v>0.0009797918937710845</v>
+      </c>
+      <c r="R47">
+        <v>0.009739571734851647</v>
+      </c>
+      <c r="S47">
+        <v>0.002425967894446229</v>
+      </c>
+      <c r="T47">
+        <v>0.01191325853491888</v>
+      </c>
+      <c r="U47">
+        <v>0.009442072980139139</v>
+      </c>
+      <c r="V47">
+        <v>0.001701664761973715</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.004894000000007281</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0.0105705324154024</v>
+      </c>
+      <c r="F48">
+        <v>9.962503725415988</v>
+      </c>
+      <c r="G48">
+        <v>141.1186597837008</v>
+      </c>
+      <c r="H48">
+        <v>10.56152689244014</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.4324608119058</v>
+      </c>
+      <c r="P48">
+        <v>9.469191558689063</v>
+      </c>
+      <c r="Q48">
+        <v>0.002113505637645404</v>
+      </c>
+      <c r="R48">
+        <v>0.04483207788802987</v>
+      </c>
+      <c r="S48">
+        <v>0.04400218279682203</v>
+      </c>
+      <c r="T48">
+        <v>0.0487346085056516</v>
+      </c>
+      <c r="U48">
+        <v>0.01029449067427428</v>
+      </c>
+      <c r="V48">
+        <v>0.02425821295638251</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.004718999999994367</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.006393201461154139</v>
+      </c>
+      <c r="F49">
+        <v>10.01272771611975</v>
+      </c>
+      <c r="G49">
+        <v>20.43639924638233</v>
+      </c>
+      <c r="H49">
+        <v>14.67454951148269</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.03074542356919</v>
+      </c>
+      <c r="P49">
+        <v>24.9935138463372</v>
+      </c>
+      <c r="Q49">
+        <v>0.002915649801121981</v>
+      </c>
+      <c r="R49">
+        <v>0.03098602238463214</v>
+      </c>
+      <c r="S49">
+        <v>0.02445745090098604</v>
+      </c>
+      <c r="T49">
+        <v>0.05388652796950115</v>
+      </c>
+      <c r="U49">
+        <v>0.009957389560286889</v>
+      </c>
+      <c r="V49">
+        <v>0.005018992399304445</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.00217489999999998</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>359.9988716690996</v>
+      </c>
+      <c r="F50">
+        <v>9.95488513396271</v>
+      </c>
+      <c r="G50">
+        <v>3.119191831862758</v>
+      </c>
+      <c r="H50">
+        <v>13.72092216715393</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.965959679177947</v>
+      </c>
+      <c r="P50">
+        <v>23.86883256907923</v>
+      </c>
+      <c r="Q50">
+        <v>0.00240674222192702</v>
+      </c>
+      <c r="R50">
+        <v>0.05287317041601308</v>
+      </c>
+      <c r="S50">
+        <v>0.01060361421710165</v>
+      </c>
+      <c r="T50">
+        <v>0.08998484025044616</v>
+      </c>
+      <c r="U50">
+        <v>0.01018638172882645</v>
+      </c>
+      <c r="V50">
+        <v>0.009343255635653181</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.001593099999979586</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.9953542488938</v>
+      </c>
+      <c r="F51">
+        <v>9.983187538362145</v>
+      </c>
+      <c r="G51">
+        <v>54.08311212491562</v>
+      </c>
+      <c r="H51">
+        <v>5.963341537578605</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>31.0594761235006</v>
+      </c>
+      <c r="P51">
+        <v>13.50009927785307</v>
+      </c>
+      <c r="Q51">
+        <v>0.002510849523316508</v>
+      </c>
+      <c r="R51">
+        <v>0.01826835631955686</v>
+      </c>
+      <c r="S51">
+        <v>0.01870873039705311</v>
+      </c>
+      <c r="T51">
+        <v>0.01782379782566903</v>
+      </c>
+      <c r="U51">
+        <v>0.009107068709268647</v>
+      </c>
+      <c r="V51">
+        <v>0.007583714955227546</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.001676699999990205</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9960145791802</v>
+      </c>
+      <c r="F52">
+        <v>10.00308174612243</v>
+      </c>
+      <c r="G52">
+        <v>88.99218375419684</v>
+      </c>
+      <c r="H52">
+        <v>5.74678097295064</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.04776648597559</v>
+      </c>
+      <c r="P52">
+        <v>11.01869944440184</v>
+      </c>
+      <c r="Q52">
+        <v>0.00246857168152865</v>
+      </c>
+      <c r="R52">
+        <v>0.01941222960019223</v>
+      </c>
+      <c r="S52">
+        <v>0.02223827315741648</v>
+      </c>
+      <c r="T52">
+        <v>0.00832029674693331</v>
+      </c>
+      <c r="U52">
+        <v>0.009802340379786263</v>
+      </c>
+      <c r="V52">
+        <v>0.009630445177562301</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002837200000016082</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>3.385239046444721E-05</v>
+      </c>
+      <c r="F53">
+        <v>9.991750283158225</v>
+      </c>
+      <c r="G53">
+        <v>121.43893874696</v>
+      </c>
+      <c r="H53">
+        <v>3.531984950337158</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.82433186252011</v>
+      </c>
+      <c r="P53">
+        <v>7.041725334464662</v>
+      </c>
+      <c r="Q53">
+        <v>0.002204127819577717</v>
+      </c>
+      <c r="R53">
+        <v>0.01321207541675293</v>
+      </c>
+      <c r="S53">
+        <v>0.01271384487845148</v>
+      </c>
+      <c r="T53">
+        <v>0.007433512493969823</v>
+      </c>
+      <c r="U53">
+        <v>0.009731678581311846</v>
+      </c>
+      <c r="V53">
+        <v>0.01485806421922757</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.00270180000001119</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9833568590957</v>
+      </c>
+      <c r="F54">
+        <v>10.02263135341087</v>
+      </c>
+      <c r="G54">
+        <v>147.9031095082948</v>
+      </c>
+      <c r="H54">
+        <v>3.324732747382457</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.23084114418293</v>
+      </c>
+      <c r="P54">
+        <v>5.198020837211508</v>
+      </c>
+      <c r="Q54">
+        <v>0.002039953611964025</v>
+      </c>
+      <c r="R54">
+        <v>0.01018267790624195</v>
+      </c>
+      <c r="S54">
+        <v>0.00913876303464234</v>
+      </c>
+      <c r="T54">
+        <v>0.007213508140112145</v>
+      </c>
+      <c r="U54">
+        <v>0.009238682214599933</v>
+      </c>
+      <c r="V54">
+        <v>0.02970266486929427</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>0.002601700000013807</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0.0001987185256795916</v>
+      </c>
+      <c r="F55">
+        <v>9.968085217929664</v>
+      </c>
+      <c r="G55">
+        <v>152.4156065940006</v>
+      </c>
+      <c r="H55">
+        <v>9.692700817133861</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.2787206795301</v>
+      </c>
+      <c r="P55">
+        <v>7.192523941208224</v>
+      </c>
+      <c r="Q55">
+        <v>0.001680963907228829</v>
+      </c>
+      <c r="R55">
+        <v>0.03485059845423247</v>
+      </c>
+      <c r="S55">
+        <v>0.02580757941327774</v>
+      </c>
+      <c r="T55">
+        <v>0.03940665475338827</v>
+      </c>
+      <c r="U55">
+        <v>0.0112086547369804</v>
+      </c>
+      <c r="V55">
+        <v>0.0196467555807111</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.004898700000012468</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.02294207235829661</v>
+      </c>
+      <c r="F56">
+        <v>9.97005416702406</v>
+      </c>
+      <c r="G56">
+        <v>75.65907248285552</v>
+      </c>
+      <c r="H56">
+        <v>7.310171159970013</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.4381090841061</v>
+      </c>
+      <c r="P56">
+        <v>13.57669850209056</v>
+      </c>
+      <c r="Q56">
+        <v>0.002578880027183885</v>
+      </c>
+      <c r="R56">
+        <v>0.02195513843662713</v>
+      </c>
+      <c r="S56">
+        <v>0.02752283634321605</v>
+      </c>
+      <c r="T56">
+        <v>0.01068458902439298</v>
+      </c>
+      <c r="U56">
+        <v>0.009830573780859274</v>
+      </c>
+      <c r="V56">
+        <v>0.02771897314264422</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>0.001862600000009706</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.9912070268805</v>
+      </c>
+      <c r="F57">
+        <v>10.00757694044959</v>
+      </c>
+      <c r="G57">
+        <v>16.78416543669862</v>
+      </c>
+      <c r="H57">
+        <v>14.68635156986002</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.46221327518247</v>
+      </c>
+      <c r="P57">
+        <v>25.05808495415102</v>
+      </c>
+      <c r="Q57">
+        <v>0.002873794719852018</v>
+      </c>
+      <c r="R57">
+        <v>0.03254001139149902</v>
+      </c>
+      <c r="S57">
+        <v>0.02157133771074509</v>
+      </c>
+      <c r="T57">
+        <v>0.05799229595896502</v>
+      </c>
+      <c r="U57">
+        <v>0.009774126433180071</v>
+      </c>
+      <c r="V57">
+        <v>0.01082647185765036</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.001613300000002482</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.002469024646784275</v>
+      </c>
+      <c r="F58">
+        <v>9.986127102160971</v>
+      </c>
+      <c r="G58">
+        <v>177.1922476509271</v>
+      </c>
+      <c r="H58">
+        <v>6.987494404872796</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.4370280827008</v>
+      </c>
+      <c r="P58">
+        <v>1.874001634144777</v>
+      </c>
+      <c r="Q58">
+        <v>0.001077516324064198</v>
+      </c>
+      <c r="R58">
+        <v>0.01298240335290602</v>
+      </c>
+      <c r="S58">
+        <v>0.004153407816141453</v>
+      </c>
+      <c r="T58">
+        <v>0.01257633128208498</v>
+      </c>
+      <c r="U58">
+        <v>0.009571042831968683</v>
+      </c>
+      <c r="V58">
+        <v>0.0224133119191958</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.004620299999999133</v>
+      </c>
+      <c r="Y58">
+        <v>25</v>
+      </c>
+      <c r="Z58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.9910260239905</v>
+      </c>
+      <c r="F59">
+        <v>9.964725224449055</v>
+      </c>
+      <c r="G59">
+        <v>15.63178229887202</v>
+      </c>
+      <c r="H59">
+        <v>5.825030581983617</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.23192717335239</v>
+      </c>
+      <c r="P59">
+        <v>14.4069268317789</v>
+      </c>
+      <c r="Q59">
+        <v>0.002284710782610831</v>
+      </c>
+      <c r="R59">
+        <v>0.02266381839698815</v>
+      </c>
+      <c r="S59">
+        <v>0.01012558456744483</v>
+      </c>
+      <c r="T59">
+        <v>0.03658384461845342</v>
+      </c>
+      <c r="U59">
+        <v>0.01090886466943566</v>
+      </c>
+      <c r="V59">
+        <v>0.03308904289436422</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59">
+        <v>0.001687099999998054</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.0002004968771954695</v>
+      </c>
+      <c r="F60">
+        <v>9.943161292916086</v>
+      </c>
+      <c r="G60">
+        <v>65.5687444030542</v>
+      </c>
+      <c r="H60">
+        <v>8.369300788336099</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.93691151731432</v>
+      </c>
+      <c r="P60">
+        <v>15.43346235729593</v>
+      </c>
+      <c r="Q60">
+        <v>0.002649677494255966</v>
+      </c>
+      <c r="R60">
+        <v>0.02292852826276934</v>
+      </c>
+      <c r="S60">
+        <v>0.02966477989706747</v>
+      </c>
+      <c r="T60">
+        <v>0.01449166452686215</v>
+      </c>
+      <c r="U60">
+        <v>0.009402668381420643</v>
+      </c>
+      <c r="V60">
+        <v>0.03325886089405768</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>0.002485900000010588</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.009793476287231727</v>
+      </c>
+      <c r="F61">
+        <v>9.984098110625677</v>
+      </c>
+      <c r="G61">
+        <v>166.4284357503815</v>
+      </c>
+      <c r="H61">
+        <v>4.883787571581876</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.73921063191523</v>
+      </c>
+      <c r="P61">
+        <v>3.046456122493541</v>
+      </c>
+      <c r="Q61">
+        <v>0.002049957491055542</v>
+      </c>
+      <c r="R61">
+        <v>0.01158090873886374</v>
+      </c>
+      <c r="S61">
+        <v>0.009363575748177377</v>
+      </c>
+      <c r="T61">
+        <v>0.006027027761928424</v>
+      </c>
+      <c r="U61">
+        <v>0.01003985223069454</v>
+      </c>
+      <c r="V61">
+        <v>0.02121453366956261</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.003678699999994706</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.9874556329449</v>
+      </c>
+      <c r="F62">
+        <v>10.02526388120165</v>
+      </c>
+      <c r="G62">
+        <v>54.22164656084597</v>
+      </c>
+      <c r="H62">
+        <v>5.270537343111438</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.56064510858136</v>
+      </c>
+      <c r="P62">
+        <v>12.76865748533299</v>
+      </c>
+      <c r="Q62">
+        <v>0.002469124435989808</v>
+      </c>
+      <c r="R62">
+        <v>0.01736412509164419</v>
+      </c>
+      <c r="S62">
+        <v>0.01684389796570628</v>
+      </c>
+      <c r="T62">
+        <v>0.01774723412462335</v>
+      </c>
+      <c r="U62">
+        <v>0.01071384610705082</v>
+      </c>
+      <c r="V62">
+        <v>0.02719746492915603</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>0.001658899999995356</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.005682724431962007</v>
+      </c>
+      <c r="F63">
+        <v>10.01341146173203</v>
+      </c>
+      <c r="G63">
+        <v>148.3931221628518</v>
+      </c>
+      <c r="H63">
+        <v>5.187650967435594</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.70688520421618</v>
+      </c>
+      <c r="P63">
+        <v>4.904130860912947</v>
+      </c>
+      <c r="Q63">
+        <v>0.002259554011315173</v>
+      </c>
+      <c r="R63">
+        <v>0.01757129519624884</v>
+      </c>
+      <c r="S63">
+        <v>0.01488517100336081</v>
+      </c>
+      <c r="T63">
+        <v>0.009662367563472407</v>
+      </c>
+      <c r="U63">
+        <v>0.01031213123468866</v>
+      </c>
+      <c r="V63">
+        <v>0.01434543536131938</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.004048100000005661</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.009179634010355344</v>
+      </c>
+      <c r="F64">
+        <v>10.04547765976783</v>
+      </c>
+      <c r="G64">
+        <v>6.100969060791345</v>
+      </c>
+      <c r="H64">
+        <v>8.827351838915044</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.290272291728654</v>
+      </c>
+      <c r="P64">
+        <v>18.10832877422202</v>
+      </c>
+      <c r="Q64">
+        <v>0.002308964567004187</v>
+      </c>
+      <c r="R64">
+        <v>0.03502831291260339</v>
+      </c>
+      <c r="S64">
+        <v>0.009637861581179434</v>
+      </c>
+      <c r="T64">
+        <v>0.05840514996958433</v>
+      </c>
+      <c r="U64">
+        <v>0.008937701897006788</v>
+      </c>
+      <c r="V64">
+        <v>0.01411464527442324</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.001431100000019114</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.9937863883425</v>
+      </c>
+      <c r="F65">
+        <v>10.01845838735192</v>
+      </c>
+      <c r="G65">
+        <v>99.73301240991188</v>
+      </c>
+      <c r="H65">
+        <v>7.773292817228195</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.65938751020196</v>
+      </c>
+      <c r="P65">
+        <v>11.88802465871312</v>
+      </c>
+      <c r="Q65">
+        <v>0.002582745846487274</v>
+      </c>
+      <c r="R65">
+        <v>0.0265330321340356</v>
+      </c>
+      <c r="S65">
+        <v>0.0336453631631442</v>
+      </c>
+      <c r="T65">
+        <v>0.008565913479217225</v>
+      </c>
+      <c r="U65">
+        <v>0.009593109472649089</v>
+      </c>
+      <c r="V65">
+        <v>0.009947223474873361</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.003777799999994613</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0.02634991038108393</v>
+      </c>
+      <c r="F66">
+        <v>10.0032030505004</v>
+      </c>
+      <c r="G66">
+        <v>68.2636078758152</v>
+      </c>
+      <c r="H66">
+        <v>9.793398926815053</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.84736642100619</v>
+      </c>
+      <c r="P66">
+        <v>16.85262089581666</v>
+      </c>
+      <c r="Q66">
+        <v>0.002733716003824973</v>
+      </c>
+      <c r="R66">
+        <v>0.02621595356181477</v>
+      </c>
+      <c r="S66">
+        <v>0.03710126509417498</v>
+      </c>
+      <c r="T66">
+        <v>0.0142239341195744</v>
+      </c>
+      <c r="U66">
+        <v>0.01079829812902727</v>
+      </c>
+      <c r="V66">
+        <v>0.004959795408076841</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.00190820000000258</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.01355075765153682</v>
+      </c>
+      <c r="F67">
+        <v>9.996168477404753</v>
+      </c>
+      <c r="G67">
+        <v>39.28415825870581</v>
+      </c>
+      <c r="H67">
+        <v>3.376010971946085</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.56860541991982</v>
+      </c>
+      <c r="P67">
+        <v>11.16010170548129</v>
+      </c>
+      <c r="Q67">
+        <v>0.002251531039709224</v>
+      </c>
+      <c r="R67">
+        <v>0.01584268390013677</v>
+      </c>
+      <c r="S67">
+        <v>0.01060423541511629</v>
+      </c>
+      <c r="T67">
+        <v>0.02231680910435094</v>
+      </c>
+      <c r="U67">
+        <v>0.009922293577577955</v>
+      </c>
+      <c r="V67">
+        <v>0.00477699294839565</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.001905399999998281</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.991529697497</v>
+      </c>
+      <c r="F68">
+        <v>9.987365578558199</v>
+      </c>
+      <c r="G68">
+        <v>27.76552219178317</v>
+      </c>
+      <c r="H68">
+        <v>4.587038201144058</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.95972045195725</v>
+      </c>
+      <c r="P68">
+        <v>12.79827103536397</v>
+      </c>
+      <c r="Q68">
+        <v>0.002305974337594748</v>
+      </c>
+      <c r="R68">
+        <v>0.01820976531821008</v>
+      </c>
+      <c r="S68">
+        <v>0.01105303164588973</v>
+      </c>
+      <c r="T68">
+        <v>0.02735510197044982</v>
+      </c>
+      <c r="U68">
+        <v>0.009813237492974573</v>
+      </c>
+      <c r="V68">
+        <v>0.01632987217643669</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.001716799999996965</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0.0273994979516672</v>
+      </c>
+      <c r="F69">
+        <v>9.950705493110156</v>
+      </c>
+      <c r="G69">
+        <v>98.22322033278374</v>
+      </c>
+      <c r="H69">
+        <v>13.21431203926716</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.28366703176999</v>
+      </c>
+      <c r="P69">
+        <v>17.61369438714664</v>
+      </c>
+      <c r="Q69">
+        <v>0.002885459361963674</v>
+      </c>
+      <c r="R69">
+        <v>0.04627716581610793</v>
+      </c>
+      <c r="S69">
+        <v>0.08040326603340553</v>
+      </c>
+      <c r="T69">
+        <v>0.01838704426761585</v>
+      </c>
+      <c r="U69">
+        <v>0.009761036976623129</v>
+      </c>
+      <c r="V69">
+        <v>0.0324958251551602</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>0.003572700000006535</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9913785033552</v>
+      </c>
+      <c r="F70">
+        <v>9.993961025422658</v>
+      </c>
+      <c r="G70">
+        <v>46.70261328328444</v>
+      </c>
+      <c r="H70">
+        <v>3.514598219125571</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.42634565583083</v>
+      </c>
+      <c r="P70">
+        <v>11.11016332416753</v>
+      </c>
+      <c r="Q70">
+        <v>0.002289536473349564</v>
+      </c>
+      <c r="R70">
+        <v>0.01537033471141349</v>
+      </c>
+      <c r="S70">
+        <v>0.01163332310799035</v>
+      </c>
+      <c r="T70">
+        <v>0.02006344022786317</v>
+      </c>
+      <c r="U70">
+        <v>0.01006361010068993</v>
+      </c>
+      <c r="V70">
+        <v>0.007503276829181399</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001668800000004467</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0.02212475032896813</v>
+      </c>
+      <c r="F71">
+        <v>9.937496625178916</v>
+      </c>
+      <c r="G71">
+        <v>53.24981272709917</v>
+      </c>
+      <c r="H71">
+        <v>12.60515335689245</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>39.077617708354</v>
+      </c>
+      <c r="P71">
+        <v>21.0893914869425</v>
+      </c>
+      <c r="Q71">
+        <v>0.002874610185136769</v>
+      </c>
+      <c r="R71">
+        <v>0.02846895661457419</v>
+      </c>
+      <c r="S71">
+        <v>0.04227025003832157</v>
+      </c>
+      <c r="T71">
+        <v>0.02626267703984246</v>
+      </c>
+      <c r="U71">
+        <v>0.01045528501123328</v>
+      </c>
+      <c r="V71">
+        <v>0.03997003874222989</v>
+      </c>
+      <c r="W71" t="s">
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>0.002052800000001298</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9974330750153</v>
+      </c>
+      <c r="F72">
+        <v>10.00706241606207</v>
+      </c>
+      <c r="G72">
+        <v>166.9346689928622</v>
+      </c>
+      <c r="H72">
+        <v>13.48146790002677</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>150.0217741632691</v>
+      </c>
+      <c r="P72">
+        <v>9.660723157257845</v>
+      </c>
+      <c r="Q72">
+        <v>0.001105261347898566</v>
+      </c>
+      <c r="R72">
+        <v>0.01244512098039122</v>
+      </c>
+      <c r="S72">
+        <v>0.00695073718969066</v>
+      </c>
+      <c r="T72">
+        <v>0.01940574246626432</v>
+      </c>
+      <c r="U72">
+        <v>0.01012467171251596</v>
+      </c>
+      <c r="V72">
+        <v>0.007108420121782554</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.004733500000014601</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.006567069673472466</v>
+      </c>
+      <c r="F73">
+        <v>10.01560832725367</v>
+      </c>
+      <c r="G73">
+        <v>33.46945583474304</v>
+      </c>
+      <c r="H73">
+        <v>7.616739171357024</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.4650320847764</v>
+      </c>
+      <c r="P73">
+        <v>16.257453798268</v>
+      </c>
+      <c r="Q73">
+        <v>0.002587151944669362</v>
+      </c>
+      <c r="R73">
+        <v>0.02069295285305944</v>
+      </c>
+      <c r="S73">
+        <v>0.01774773420268909</v>
+      </c>
+      <c r="T73">
+        <v>0.02816375159624575</v>
+      </c>
+      <c r="U73">
+        <v>0.009791939386828751</v>
+      </c>
+      <c r="V73">
+        <v>0.01065669109895858</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001662500000009004</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9925381164515</v>
+      </c>
+      <c r="F74">
+        <v>9.992152123334035</v>
+      </c>
+      <c r="G74">
+        <v>19.20187500434415</v>
+      </c>
+      <c r="H74">
+        <v>11.23803674385698</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57200537289259</v>
+      </c>
+      <c r="P74">
+        <v>20.87750080612838</v>
+      </c>
+      <c r="Q74">
+        <v>0.002708205254143383</v>
+      </c>
+      <c r="R74">
+        <v>0.02725732407236298</v>
+      </c>
+      <c r="S74">
+        <v>0.01808768483447491</v>
+      </c>
+      <c r="T74">
+        <v>0.04546432194675634</v>
+      </c>
+      <c r="U74">
+        <v>0.0100924893433868</v>
+      </c>
+      <c r="V74">
+        <v>0.008085986422124665</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.001840899999990597</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.9880173362006</v>
+      </c>
+      <c r="F75">
+        <v>10.05451301307939</v>
+      </c>
+      <c r="G75">
+        <v>115.6934889640654</v>
+      </c>
+      <c r="H75">
+        <v>9.540336093944591</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>77.84044596472428</v>
+      </c>
+      <c r="P75">
+        <v>11.74838571498954</v>
+      </c>
+      <c r="Q75">
+        <v>0.002734516541970675</v>
+      </c>
+      <c r="R75">
+        <v>0.03981643303649687</v>
+      </c>
+      <c r="S75">
+        <v>0.05083494545521331</v>
+      </c>
+      <c r="T75">
+        <v>0.02449944433020474</v>
+      </c>
+      <c r="U75">
+        <v>0.009104914826212878</v>
+      </c>
+      <c r="V75">
+        <v>0.03746183054729811</v>
+      </c>
+      <c r="W75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>0.003861099999994622</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9907058797429</v>
+      </c>
+      <c r="F76">
+        <v>9.998024849663208</v>
+      </c>
+      <c r="G76">
+        <v>36.39972186142602</v>
+      </c>
+      <c r="H76">
+        <v>12.40682499836818</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.32014744514014</v>
+      </c>
+      <c r="P76">
+        <v>21.79637384903192</v>
+      </c>
+      <c r="Q76">
+        <v>0.002873867433277293</v>
+      </c>
+      <c r="R76">
+        <v>0.02660847546294501</v>
+      </c>
+      <c r="S76">
+        <v>0.03068899600242599</v>
+      </c>
+      <c r="T76">
+        <v>0.03572853181535565</v>
+      </c>
+      <c r="U76">
+        <v>0.009106072160391861</v>
+      </c>
+      <c r="V76">
+        <v>0.003301908749427687</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.001842199999998684</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.9811562934234</v>
+      </c>
+      <c r="F77">
+        <v>10.02515587426911</v>
+      </c>
+      <c r="G77">
+        <v>102.3697912916569</v>
+      </c>
+      <c r="H77">
+        <v>3.815127181408523</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.25893044949857</v>
+      </c>
+      <c r="P77">
+        <v>8.550941522800345</v>
+      </c>
+      <c r="Q77">
+        <v>0.002300956360970941</v>
+      </c>
+      <c r="R77">
+        <v>0.01477951910148427</v>
+      </c>
+      <c r="S77">
+        <v>0.01481070796220054</v>
+      </c>
+      <c r="T77">
+        <v>0.008616375533280636</v>
+      </c>
+      <c r="U77">
+        <v>0.009588770302305106</v>
+      </c>
+      <c r="V77">
+        <v>0.03001412853550519</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>0.002138399999978446</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9919682321211</v>
+      </c>
+      <c r="F78">
+        <v>10.00319127046547</v>
+      </c>
+      <c r="G78">
+        <v>55.97807415846322</v>
+      </c>
+      <c r="H78">
+        <v>12.83308104867029</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.0435863020427</v>
+      </c>
+      <c r="P78">
+        <v>21.21837304332183</v>
+      </c>
+      <c r="Q78">
+        <v>0.002903137743084819</v>
+      </c>
+      <c r="R78">
+        <v>0.02954355617219927</v>
+      </c>
+      <c r="S78">
+        <v>0.0452281152797093</v>
+      </c>
+      <c r="T78">
+        <v>0.02519717831847549</v>
+      </c>
+      <c r="U78">
+        <v>0.009535960647895173</v>
+      </c>
+      <c r="V78">
+        <v>0.006172280990837232</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.001807700000000523</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0.002488968729620555</v>
+      </c>
+      <c r="F79">
+        <v>9.980278333400646</v>
+      </c>
+      <c r="G79">
+        <v>165.4516640057698</v>
+      </c>
+      <c r="H79">
+        <v>10.67950053124292</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9458493058674</v>
+      </c>
+      <c r="P79">
+        <v>6.684318911595202</v>
+      </c>
+      <c r="Q79">
+        <v>0.001150713586284972</v>
+      </c>
+      <c r="R79">
+        <v>0.01619145599228031</v>
+      </c>
+      <c r="S79">
+        <v>0.008116691308036817</v>
+      </c>
+      <c r="T79">
+        <v>0.02104529447389492</v>
+      </c>
+      <c r="U79">
+        <v>0.009957077412361031</v>
+      </c>
+      <c r="V79">
+        <v>0.01169057354195016</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.004214899999993804</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9879537880673</v>
+      </c>
+      <c r="F80">
+        <v>10.04477220232479</v>
+      </c>
+      <c r="G80">
+        <v>8.748109440621965</v>
+      </c>
+      <c r="H80">
+        <v>11.15624467790894</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>8.81650601586051</v>
+      </c>
+      <c r="P80">
+        <v>20.90719391239527</v>
+      </c>
+      <c r="Q80">
+        <v>0.002523680602881281</v>
+      </c>
+      <c r="R80">
+        <v>0.03534772781983039</v>
+      </c>
+      <c r="S80">
+        <v>0.01247325711026798</v>
+      </c>
+      <c r="T80">
+        <v>0.06101888647374142</v>
+      </c>
+      <c r="U80">
+        <v>0.01004119585630541</v>
+      </c>
+      <c r="V80">
+        <v>0.01334709456277264</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.001553400000005922</v>
+      </c>
+      <c r="Y80">
+        <v>7</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.9718298307913</v>
+      </c>
+      <c r="F81">
+        <v>10.0096524873636</v>
+      </c>
+      <c r="G81">
+        <v>90.03936731913896</v>
+      </c>
+      <c r="H81">
+        <v>8.649760633951123</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.39061083195801</v>
+      </c>
+      <c r="P81">
+        <v>13.70576352044158</v>
+      </c>
+      <c r="Q81">
+        <v>0.00265154180437334</v>
+      </c>
+      <c r="R81">
+        <v>0.02742108265388574</v>
+      </c>
+      <c r="S81">
+        <v>0.03744052918976119</v>
+      </c>
+      <c r="T81">
+        <v>0.007449715183710007</v>
+      </c>
+      <c r="U81">
+        <v>0.009443145576288696</v>
+      </c>
+      <c r="V81">
+        <v>0.01855486742228193</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.002871300000009569</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9921157656185</v>
+      </c>
+      <c r="F82">
+        <v>10.03058316640313</v>
+      </c>
+      <c r="G82">
+        <v>94.01913368353043</v>
+      </c>
+      <c r="H82">
+        <v>11.42787830140337</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.51101136310507</v>
+      </c>
+      <c r="P82">
+        <v>16.19039179348104</v>
+      </c>
+      <c r="Q82">
+        <v>0.002810056820055086</v>
+      </c>
+      <c r="R82">
+        <v>0.0376218301471478</v>
+      </c>
+      <c r="S82">
+        <v>0.05965403666401787</v>
+      </c>
+      <c r="T82">
+        <v>0.01073158281517439</v>
+      </c>
+      <c r="U82">
+        <v>0.009541527059834977</v>
+      </c>
+      <c r="V82">
+        <v>0.0194588092057337</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.003516000000018948</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="Z82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.02304707916059513</v>
+      </c>
+      <c r="F83">
+        <v>10.03316548732158</v>
+      </c>
+      <c r="G83">
+        <v>64.15516896148233</v>
+      </c>
+      <c r="H83">
+        <v>7.089332011513538</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.44079383251947</v>
+      </c>
+      <c r="P83">
+        <v>14.20411997121931</v>
+      </c>
+      <c r="Q83">
+        <v>0.002594958270735017</v>
+      </c>
+      <c r="R83">
+        <v>0.02073257951112238</v>
+      </c>
+      <c r="S83">
+        <v>0.02442877277344169</v>
+      </c>
+      <c r="T83">
+        <v>0.01476045792721678</v>
+      </c>
+      <c r="U83">
+        <v>0.0101143608042934</v>
+      </c>
+      <c r="V83">
+        <v>0.01289659968186558</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.001990599999999176</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.9826621229083</v>
+      </c>
+      <c r="F84">
+        <v>9.992402724177362</v>
+      </c>
+      <c r="G84">
+        <v>49.48877706045374</v>
+      </c>
+      <c r="H84">
+        <v>10.69721460177866</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.81197464236691</v>
+      </c>
+      <c r="P84">
+        <v>19.14022072985082</v>
+      </c>
+      <c r="Q84">
+        <v>0.002798161245300016</v>
+      </c>
+      <c r="R84">
+        <v>0.02518962247564621</v>
+      </c>
+      <c r="S84">
+        <v>0.03257904874139961</v>
+      </c>
+      <c r="T84">
+        <v>0.02484144978690813</v>
+      </c>
+      <c r="U84">
+        <v>0.01077944876471211</v>
+      </c>
+      <c r="V84">
+        <v>0.01071354928114729</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.001853699999998071</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0.002109593950565319</v>
+      </c>
+      <c r="F85">
+        <v>9.975001152449343</v>
+      </c>
+      <c r="G85">
+        <v>46.23295418893011</v>
+      </c>
+      <c r="H85">
+        <v>11.16948151798061</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.12208270231559</v>
+      </c>
+      <c r="P85">
+        <v>19.85667714400296</v>
+      </c>
+      <c r="Q85">
+        <v>0.002816118394104547</v>
+      </c>
+      <c r="R85">
+        <v>0.02551150600032786</v>
+      </c>
+      <c r="S85">
+        <v>0.03254726545043762</v>
+      </c>
+      <c r="T85">
+        <v>0.02739297127374522</v>
+      </c>
+      <c r="U85">
+        <v>0.009900056100727844</v>
+      </c>
+      <c r="V85">
+        <v>0.01668725258542439</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.002348600000004808</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.02939367824434466</v>
+      </c>
+      <c r="F86">
+        <v>10.01687927900628</v>
+      </c>
+      <c r="G86">
+        <v>8.244659896280268</v>
+      </c>
+      <c r="H86">
+        <v>7.438446342696184</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.601319751442823</v>
+      </c>
+      <c r="P86">
+        <v>16.41906356121388</v>
+      </c>
+      <c r="Q86">
+        <v>0.002282806300556507</v>
+      </c>
+      <c r="R86">
+        <v>0.02987755276197833</v>
+      </c>
+      <c r="S86">
+        <v>0.0094979402039176</v>
+      </c>
+      <c r="T86">
+        <v>0.04937719170102641</v>
+      </c>
+      <c r="U86">
+        <v>0.01117388439476176</v>
+      </c>
+      <c r="V86">
+        <v>0.007344346226381781</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.00181440000000066</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0.001540508189861893</v>
+      </c>
+      <c r="F87">
+        <v>10.01687493023146</v>
+      </c>
+      <c r="G87">
+        <v>111.6570810166562</v>
+      </c>
+      <c r="H87">
+        <v>9.13107215109776</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.53083419978019</v>
+      </c>
+      <c r="P87">
+        <v>11.8403061698114</v>
+      </c>
+      <c r="Q87">
+        <v>0.002678654579016784</v>
+      </c>
+      <c r="R87">
+        <v>0.0356596092870991</v>
+      </c>
+      <c r="S87">
+        <v>0.04600157120678659</v>
+      </c>
+      <c r="T87">
+        <v>0.01884396448879279</v>
+      </c>
+      <c r="U87">
+        <v>0.01020382571084185</v>
+      </c>
+      <c r="V87">
+        <v>0.0109259173681521</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.004001099999982216</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9975510444345</v>
+      </c>
+      <c r="F88">
+        <v>10.00269966054665</v>
+      </c>
+      <c r="G88">
+        <v>36.55028711298275</v>
+      </c>
+      <c r="H88">
+        <v>5.466758380940568</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.85694759914256</v>
+      </c>
+      <c r="P88">
+        <v>13.636545788021</v>
+      </c>
+      <c r="Q88">
+        <v>0.002436631003885439</v>
+      </c>
+      <c r="R88">
+        <v>0.01801427571457222</v>
+      </c>
+      <c r="S88">
+        <v>0.01419298490273962</v>
+      </c>
+      <c r="T88">
+        <v>0.02425377054090331</v>
+      </c>
+      <c r="U88">
+        <v>0.0101327950549119</v>
+      </c>
+      <c r="V88">
+        <v>0.01511010201135244</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.002122299999996358</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0.02169110555996947</v>
+      </c>
+      <c r="F89">
+        <v>9.891119276267201</v>
+      </c>
+      <c r="G89">
+        <v>118.110567415811</v>
+      </c>
+      <c r="H89">
+        <v>14.25221066400566</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.75908079931996</v>
+      </c>
+      <c r="P89">
+        <v>16.27829255778074</v>
+      </c>
+      <c r="Q89">
+        <v>0.002726685406223896</v>
+      </c>
+      <c r="R89">
+        <v>0.05802253255116866</v>
+      </c>
+      <c r="S89">
+        <v>0.09481995457506792</v>
+      </c>
+      <c r="T89">
+        <v>0.05376558577377684</v>
+      </c>
+      <c r="U89">
+        <v>0.01004005198513472</v>
+      </c>
+      <c r="V89">
+        <v>0.05959629392051782</v>
+      </c>
+      <c r="W89" t="s">
+        <v>26</v>
+      </c>
+      <c r="X89">
+        <v>0.004478400000010652</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9953837415177</v>
+      </c>
+      <c r="F90">
+        <v>10.05057718677098</v>
+      </c>
+      <c r="G90">
+        <v>116.5619016171942</v>
+      </c>
+      <c r="H90">
+        <v>9.15113110157821</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.06903822480996</v>
+      </c>
+      <c r="P90">
+        <v>11.27794292081573</v>
+      </c>
+      <c r="Q90">
+        <v>0.002702097024433339</v>
+      </c>
+      <c r="R90">
+        <v>0.03801738971758988</v>
+      </c>
+      <c r="S90">
+        <v>0.04723297933982532</v>
+      </c>
+      <c r="T90">
+        <v>0.0230988847642505</v>
+      </c>
+      <c r="U90">
+        <v>0.009962582559837752</v>
+      </c>
+      <c r="V90">
+        <v>0.02956257662205999</v>
+      </c>
+      <c r="W90" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>0.004571499999997286</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.02180733428495461</v>
+      </c>
+      <c r="F91">
+        <v>10.00123604354106</v>
+      </c>
+      <c r="G91">
+        <v>90.03215884496562</v>
+      </c>
+      <c r="H91">
+        <v>6.057515534775887</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.84128011048895</v>
+      </c>
+      <c r="P91">
+        <v>11.21450181948105</v>
+      </c>
+      <c r="Q91">
+        <v>0.002482957045939731</v>
+      </c>
+      <c r="R91">
+        <v>0.0202708173243949</v>
+      </c>
+      <c r="S91">
+        <v>0.02367477796090742</v>
+      </c>
+      <c r="T91">
+        <v>0.007955841644865784</v>
+      </c>
+      <c r="U91">
+        <v>0.01039595353483456</v>
+      </c>
+      <c r="V91">
+        <v>0.01139311271889917</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002595700000000534</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9907259813916</v>
+      </c>
+      <c r="F92">
+        <v>9.972016241903455</v>
+      </c>
+      <c r="G92">
+        <v>27.40673600596415</v>
+      </c>
+      <c r="H92">
+        <v>4.912025465746666</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.13883700019883</v>
+      </c>
+      <c r="P92">
+        <v>13.17348958992753</v>
+      </c>
+      <c r="Q92">
+        <v>0.002329395988927794</v>
+      </c>
+      <c r="R92">
+        <v>0.0184995544022012</v>
+      </c>
+      <c r="S92">
+        <v>0.01146244402957498</v>
+      </c>
+      <c r="T92">
+        <v>0.02779389350530169</v>
+      </c>
+      <c r="U92">
+        <v>0.01071369657092554</v>
+      </c>
+      <c r="V92">
+        <v>0.01762620928237071</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.001645300000006955</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.9844320453259</v>
+      </c>
+      <c r="F93">
+        <v>9.983341843134966</v>
+      </c>
+      <c r="G93">
+        <v>36.16603806374282</v>
+      </c>
+      <c r="H93">
+        <v>6.942000605711073</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.3503254700058</v>
+      </c>
+      <c r="P93">
+        <v>15.34932835074364</v>
+      </c>
+      <c r="Q93">
+        <v>0.00254295443125267</v>
+      </c>
+      <c r="R93">
+        <v>0.01964492320111432</v>
+      </c>
+      <c r="S93">
+        <v>0.0170798634400512</v>
+      </c>
+      <c r="T93">
+        <v>0.02580157411017103</v>
+      </c>
+      <c r="U93">
+        <v>0.009406647698178075</v>
+      </c>
+      <c r="V93">
+        <v>0.005479268544752717</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.001999399999988327</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0.00486884527110696</v>
+      </c>
+      <c r="F94">
+        <v>10.01648232352047</v>
+      </c>
+      <c r="G94">
+        <v>159.4664114512663</v>
+      </c>
+      <c r="H94">
+        <v>12.48663809007933</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.8986507542134</v>
+      </c>
+      <c r="P94">
+        <v>9.235167777405421</v>
+      </c>
+      <c r="Q94">
+        <v>0.001253035569864618</v>
+      </c>
+      <c r="R94">
+        <v>0.01767984864158297</v>
+      </c>
+      <c r="S94">
+        <v>0.01208969597993659</v>
+      </c>
+      <c r="T94">
+        <v>0.02520381811659777</v>
+      </c>
+      <c r="U94">
+        <v>0.008925558301530669</v>
+      </c>
+      <c r="V94">
+        <v>0.00927587893154749</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.004623299999991559</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9911617584081</v>
+      </c>
+      <c r="F95">
+        <v>9.999131587744353</v>
+      </c>
+      <c r="G95">
+        <v>109.1359849701908</v>
+      </c>
+      <c r="H95">
+        <v>10.89299519356766</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.09328001306731</v>
+      </c>
+      <c r="P95">
+        <v>13.86860186230116</v>
+      </c>
+      <c r="Q95">
+        <v>0.002799570001332909</v>
+      </c>
+      <c r="R95">
+        <v>0.04318951486376164</v>
+      </c>
+      <c r="S95">
+        <v>0.06249905430322016</v>
+      </c>
+      <c r="T95">
+        <v>0.02438095231346746</v>
+      </c>
+      <c r="U95">
+        <v>0.009017795269557052</v>
+      </c>
+      <c r="V95">
+        <v>0.001949512257111456</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.004222300000009227</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9987822154152</v>
+      </c>
+      <c r="F96">
+        <v>9.992375327120126</v>
+      </c>
+      <c r="G96">
+        <v>129.4684793354296</v>
+      </c>
+      <c r="H96">
+        <v>10.27820326858909</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.48519483153441</v>
+      </c>
+      <c r="P96">
+        <v>10.70171891876903</v>
+      </c>
+      <c r="Q96">
+        <v>0.002706279504540896</v>
+      </c>
+      <c r="R96">
+        <v>0.05132693195103164</v>
+      </c>
+      <c r="S96">
+        <v>0.05937407616491846</v>
+      </c>
+      <c r="T96">
+        <v>0.0460171745521021</v>
+      </c>
+      <c r="U96">
+        <v>0.009974847470652201</v>
+      </c>
+      <c r="V96">
+        <v>0.006181435463862853</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004578500000008034</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.9949719940471</v>
+      </c>
+      <c r="F97">
+        <v>9.99940857024173</v>
+      </c>
+      <c r="G97">
+        <v>41.16117266685406</v>
+      </c>
+      <c r="H97">
+        <v>5.296129160722768</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.74449377986232</v>
+      </c>
+      <c r="P97">
+        <v>13.29299531551348</v>
+      </c>
+      <c r="Q97">
+        <v>0.00243886962790636</v>
+      </c>
+      <c r="R97">
+        <v>0.01754505026582243</v>
+      </c>
+      <c r="S97">
+        <v>0.01470509165085953</v>
+      </c>
+      <c r="T97">
+        <v>0.02225748872694728</v>
+      </c>
+      <c r="U97">
+        <v>0.009439744357627688</v>
+      </c>
+      <c r="V97">
+        <v>0.005657300478755404</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.001620699999989483</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0.02555862627300105</v>
+      </c>
+      <c r="F98">
+        <v>10.00066967836723</v>
+      </c>
+      <c r="G98">
+        <v>38.66431375816027</v>
+      </c>
+      <c r="H98">
+        <v>13.8603864243195</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.58653235230072</v>
+      </c>
+      <c r="P98">
+        <v>23.42571684200631</v>
+      </c>
+      <c r="Q98">
+        <v>0.002949307702669515</v>
+      </c>
+      <c r="R98">
+        <v>0.02869527365307667</v>
+      </c>
+      <c r="S98">
+        <v>0.03672884206226765</v>
+      </c>
+      <c r="T98">
+        <v>0.03822283970791361</v>
+      </c>
+      <c r="U98">
+        <v>0.009675895835178113</v>
+      </c>
+      <c r="V98">
+        <v>0.01493622115215661</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.002421300000008841</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.00633518323151204</v>
+      </c>
+      <c r="F99">
+        <v>10.0351568675237</v>
+      </c>
+      <c r="G99">
+        <v>150.6382815804521</v>
+      </c>
+      <c r="H99">
+        <v>14.70388263175458</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>129.0163918125386</v>
+      </c>
+      <c r="P99">
+        <v>12.64292367118807</v>
+      </c>
+      <c r="Q99">
+        <v>0.001453412059575931</v>
+      </c>
+      <c r="R99">
+        <v>0.02205466541698396</v>
+      </c>
+      <c r="S99">
+        <v>0.02190612480860202</v>
+      </c>
+      <c r="T99">
+        <v>0.03393758112296804</v>
+      </c>
+      <c r="U99">
+        <v>0.009790365635448587</v>
+      </c>
+      <c r="V99">
+        <v>0.02202625494993871</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004624000000006845</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0.0219580295808689</v>
+      </c>
+      <c r="F100">
+        <v>9.953802332561583</v>
+      </c>
+      <c r="G100">
+        <v>131.8470722355594</v>
+      </c>
+      <c r="H100">
+        <v>9.737556701508979</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.65555135501309</v>
+      </c>
+      <c r="P100">
+        <v>9.889425021433411</v>
+      </c>
+      <c r="Q100">
+        <v>0.002673042960776369</v>
+      </c>
+      <c r="R100">
+        <v>0.04971117423301592</v>
+      </c>
+      <c r="S100">
+        <v>0.05441535880699558</v>
+      </c>
+      <c r="T100">
+        <v>0.04454183772580721</v>
+      </c>
+      <c r="U100">
+        <v>0.01095404561321912</v>
+      </c>
+      <c r="V100">
+        <v>0.02914794294527163</v>
+      </c>
+      <c r="W100" t="s">
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>0.00512760000000867</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9904718254149</v>
+      </c>
+      <c r="F101">
+        <v>10.01573515716899</v>
+      </c>
+      <c r="G101">
+        <v>121.0028124710137</v>
+      </c>
+      <c r="H101">
+        <v>8.878559787376908</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.48715478145505</v>
+      </c>
+      <c r="P101">
+        <v>10.47687712055832</v>
+      </c>
+      <c r="Q101">
+        <v>0.002690451738377794</v>
+      </c>
+      <c r="R101">
+        <v>0.03852791205112581</v>
+      </c>
+      <c r="S101">
+        <v>0.04554085808909152</v>
+      </c>
+      <c r="T101">
+        <v>0.02556717536330164</v>
+      </c>
+      <c r="U101">
+        <v>0.009729410696791051</v>
+      </c>
+      <c r="V101">
+        <v>0.01027431486934103</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.00416759999998817</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
